--- a/template.xlsx
+++ b/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Desktop\code\PDF_host_Website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3DB94B6-9B69-448D-AA5E-DBA744A1FDB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE1FB4ED-AD11-4D83-B6F9-1C99054645D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3522" uniqueCount="3250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3521" uniqueCount="3249">
   <si>
     <t>C-VI096</t>
   </si>
@@ -7577,9 +7577,6 @@
   </si>
   <si>
     <t>Southwind|Spa</t>
-  </si>
-  <si>
-    <t>Specialty Pools</t>
   </si>
   <si>
     <t>C-SP250</t>
@@ -10117,16 +10114,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P1380"/>
+  <dimension ref="A1:P1378"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A496" workbookViewId="0">
-      <selection activeCell="B510" sqref="B510"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.5546875" customWidth="1"/>
-    <col min="2" max="2" width="23.6640625" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" customWidth="1"/>
     <col min="3" max="3" width="23.77734375" customWidth="1"/>
     <col min="4" max="4" width="20.6640625" customWidth="1"/>
     <col min="5" max="5" width="28.33203125" customWidth="1"/>
@@ -10138,10 +10135,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>3243</v>
+      </c>
+      <c r="B1" t="s">
         <v>3244</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3245</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -10397,40 +10394,36 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
+      <c r="A27" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" t="s">
         <v>67</v>
       </c>
-      <c r="C27" s="2"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
+      <c r="A28" t="s">
         <v>65</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" t="s">
         <v>70</v>
       </c>
-      <c r="C28" s="2"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
+      <c r="A29" t="s">
         <v>66</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" t="s">
         <v>68</v>
       </c>
-      <c r="C29" s="2"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
+      <c r="A30" t="s">
         <v>69</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" t="s">
         <v>70</v>
       </c>
-      <c r="C30" s="2"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
@@ -12046,13 +12039,13 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" s="1"/>
-      <c r="B199" s="2" t="s">
+      <c r="B199" t="s">
         <v>469</v>
       </c>
-      <c r="C199" s="2" t="s">
+      <c r="C199" t="s">
         <v>470</v>
       </c>
-      <c r="D199" s="2" t="s">
+      <c r="D199" t="s">
         <v>471</v>
       </c>
     </row>
@@ -12060,13 +12053,13 @@
       <c r="A200" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="B200" s="2" t="s">
+      <c r="B200" t="s">
         <v>474</v>
       </c>
-      <c r="C200" s="2" t="s">
+      <c r="C200" t="s">
         <v>475</v>
       </c>
-      <c r="D200" s="2" t="s">
+      <c r="D200" t="s">
         <v>476</v>
       </c>
     </row>
@@ -12151,7 +12144,7 @@
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A211" s="2" t="s">
+      <c r="A211" t="s">
         <v>8</v>
       </c>
       <c r="B211" t="s">
@@ -12159,7 +12152,7 @@
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A212" s="2" t="s">
+      <c r="A212" t="s">
         <v>492</v>
       </c>
       <c r="B212" t="s">
@@ -12335,7 +12328,7 @@
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A231" s="2" t="s">
+      <c r="A231" t="s">
         <v>536</v>
       </c>
       <c r="B231" t="s">
@@ -12346,7 +12339,7 @@
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A232" s="2" t="s">
+      <c r="A232" t="s">
         <v>537</v>
       </c>
       <c r="B232" t="s">
@@ -12443,8 +12436,8 @@
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A243" s="2" t="s">
-        <v>3248</v>
+      <c r="A243" t="s">
+        <v>3247</v>
       </c>
       <c r="B243" t="s">
         <v>582</v>
@@ -12454,7 +12447,7 @@
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A244" s="2" t="s">
+      <c r="A244" t="s">
         <v>557</v>
       </c>
       <c r="B244" t="s">
@@ -12566,41 +12559,39 @@
         <v>568</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A257" s="2" t="s">
-        <v>3249</v>
-      </c>
-      <c r="B257" s="2" t="s">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>3248</v>
+      </c>
+      <c r="B257" t="s">
         <v>590</v>
       </c>
-      <c r="C257" s="2"/>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A258" s="2" t="s">
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
         <v>587</v>
       </c>
-      <c r="B258" s="2" t="s">
+      <c r="B258" t="s">
+        <v>3245</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>588</v>
+      </c>
+      <c r="B259" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>591</v>
+      </c>
+      <c r="B260" t="s">
         <v>3246</v>
       </c>
-      <c r="C258" s="2"/>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A259" s="2" t="s">
-        <v>588</v>
-      </c>
-      <c r="B259" s="2" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A260" s="2" t="s">
-        <v>591</v>
-      </c>
-      <c r="B260" s="2" t="s">
-        <v>3247</v>
-      </c>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>8</v>
       </c>
@@ -12613,11 +12604,8 @@
       <c r="D261" t="s">
         <v>594</v>
       </c>
-      <c r="E261" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>596</v>
       </c>
@@ -12630,19 +12618,22 @@
       <c r="D262" t="s">
         <v>599</v>
       </c>
-      <c r="E262" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" s="1"/>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B263" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" s="1" t="s">
         <v>603</v>
       </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B264" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>208</v>
       </c>
@@ -12653,7 +12644,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>606</v>
       </c>
@@ -12664,7 +12655,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>607</v>
       </c>
@@ -12675,7 +12666,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>610</v>
       </c>
@@ -12686,7 +12677,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>613</v>
       </c>
@@ -12694,7 +12685,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>615</v>
       </c>
@@ -12702,16 +12693,16 @@
         <v>616</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A271" s="2" t="s">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
         <v>8</v>
       </c>
       <c r="B271" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A272" s="2" t="s">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
         <v>617</v>
       </c>
       <c r="B272" t="s">
@@ -12719,7 +12710,7 @@
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A273" s="2" t="s">
+      <c r="A273" t="s">
         <v>618</v>
       </c>
       <c r="B273" t="s">
@@ -12727,7 +12718,7 @@
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A274" s="2" t="s">
+      <c r="A274" t="s">
         <v>619</v>
       </c>
       <c r="B274" t="s">
@@ -12735,73 +12726,73 @@
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A275" s="2" t="s">
+      <c r="A275" t="s">
         <v>620</v>
       </c>
-      <c r="B275" s="2" t="s">
+      <c r="B275" t="s">
         <v>624</v>
       </c>
-      <c r="C275" s="2" t="s">
+      <c r="C275" t="s">
         <v>625</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A276" s="2" t="s">
+      <c r="A276" t="s">
         <v>621</v>
       </c>
-      <c r="B276" s="2" t="s">
+      <c r="B276" t="s">
         <v>630</v>
       </c>
-      <c r="C276" s="2" t="s">
+      <c r="C276" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A277" s="2" t="s">
+      <c r="A277" t="s">
         <v>622</v>
       </c>
-      <c r="B277" s="2" t="s">
+      <c r="B277" t="s">
         <v>626</v>
       </c>
-      <c r="C277" s="2" t="s">
+      <c r="C277" t="s">
         <v>627</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A278" s="2" t="s">
+      <c r="A278" t="s">
         <v>621</v>
       </c>
-      <c r="B278" s="2" t="s">
+      <c r="B278" t="s">
         <v>630</v>
       </c>
-      <c r="C278" s="2" t="s">
+      <c r="C278" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A279" s="2" t="s">
+      <c r="A279" t="s">
         <v>632</v>
       </c>
       <c r="B279" t="s">
         <v>628</v>
       </c>
-      <c r="C279" s="2" t="s">
+      <c r="C279" t="s">
         <v>633</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A280" s="2" t="s">
+      <c r="A280" t="s">
         <v>634</v>
       </c>
       <c r="B280" t="s">
         <v>630</v>
       </c>
-      <c r="C280" s="2" t="s">
+      <c r="C280" t="s">
         <v>635</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A281" s="2" t="s">
+      <c r="A281" t="s">
         <v>636</v>
       </c>
       <c r="B281" t="s">
@@ -12809,7 +12800,7 @@
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A282" s="2" t="s">
+      <c r="A282" t="s">
         <v>637</v>
       </c>
       <c r="B282" t="s">
@@ -12817,7 +12808,7 @@
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A283" s="2" t="s">
+      <c r="A283" t="s">
         <v>638</v>
       </c>
       <c r="B283" t="s">
@@ -12825,7 +12816,7 @@
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A284" s="2" t="s">
+      <c r="A284" t="s">
         <v>637</v>
       </c>
       <c r="B284" t="s">
@@ -13249,88 +13240,88 @@
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A331" s="2" t="s">
+      <c r="A331" t="s">
         <v>745</v>
       </c>
-      <c r="B331" s="2" t="s">
+      <c r="B331" t="s">
         <v>759</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A332" s="2" t="s">
+      <c r="A332" t="s">
         <v>746</v>
       </c>
-      <c r="B332" s="2" t="s">
+      <c r="B332" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A333" s="2" t="s">
+      <c r="A333" t="s">
         <v>747</v>
       </c>
-      <c r="B333" s="2" t="s">
+      <c r="B333" t="s">
         <v>748</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A334" s="2" t="s">
+      <c r="A334" t="s">
         <v>746</v>
       </c>
-      <c r="B334" s="2" t="s">
+      <c r="B334" t="s">
         <v>749</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A335" s="2" t="s">
+      <c r="A335" t="s">
         <v>750</v>
       </c>
-      <c r="B335" s="2" t="s">
+      <c r="B335" t="s">
         <v>751</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A336" s="2" t="s">
+      <c r="A336" t="s">
         <v>752</v>
       </c>
-      <c r="B336" s="2" t="s">
+      <c r="B336" t="s">
         <v>753</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A337" s="2" t="s">
+      <c r="A337" t="s">
         <v>754</v>
       </c>
-      <c r="B337" s="2" t="s">
+      <c r="B337" t="s">
         <v>757</v>
       </c>
-      <c r="C337" s="2" t="s">
+      <c r="C337" t="s">
         <v>758</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A338" s="2" t="s">
+      <c r="A338" t="s">
         <v>755</v>
       </c>
-      <c r="B338" s="2" t="s">
+      <c r="B338" t="s">
         <v>762</v>
       </c>
-      <c r="C338" s="2" t="s">
+      <c r="C338" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A339" s="2" t="s">
+      <c r="A339" t="s">
         <v>756</v>
       </c>
-      <c r="B339" s="2" t="s">
+      <c r="B339" t="s">
         <v>760</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A340" s="2" t="s">
+      <c r="A340" t="s">
         <v>761</v>
       </c>
-      <c r="B340" s="2" t="s">
+      <c r="B340" t="s">
         <v>762</v>
       </c>
     </row>
@@ -13357,7 +13348,7 @@
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A343" s="2" t="s">
+      <c r="A343" t="s">
         <v>772</v>
       </c>
       <c r="B343" t="s">
@@ -13368,7 +13359,7 @@
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A344" s="2" t="s">
+      <c r="A344" t="s">
         <v>773</v>
       </c>
       <c r="B344" t="s">
@@ -13750,7 +13741,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>864</v>
       </c>
@@ -13758,7 +13749,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>866</v>
       </c>
@@ -13766,7 +13757,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>868</v>
       </c>
@@ -13774,7 +13765,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>871</v>
       </c>
@@ -13782,169 +13773,113 @@
         <v>872</v>
       </c>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A389" s="2" t="s">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A389" t="s">
         <v>874</v>
       </c>
-      <c r="B389" s="2" t="s">
+      <c r="B389" t="s">
         <v>886</v>
       </c>
-      <c r="C389" s="2" t="s">
+      <c r="C389" t="s">
         <v>887</v>
       </c>
-      <c r="D389" s="2"/>
-      <c r="E389" s="2"/>
-      <c r="F389" s="2"/>
-      <c r="G389" s="2"/>
-    </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A390" s="2" t="s">
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A390" t="s">
         <v>875</v>
       </c>
-      <c r="B390" s="2" t="s">
+      <c r="B390" t="s">
         <v>890</v>
       </c>
-      <c r="C390" s="2" t="s">
+      <c r="C390" t="s">
         <v>891</v>
       </c>
-      <c r="D390" s="2"/>
-      <c r="E390" s="2"/>
-      <c r="F390" s="2"/>
-      <c r="G390" s="2"/>
-    </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A391" s="2" t="s">
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A391" t="s">
         <v>876</v>
       </c>
-      <c r="B391" s="2" t="s">
+      <c r="B391" t="s">
         <v>870</v>
       </c>
-      <c r="C391" s="2"/>
-      <c r="D391" s="2"/>
-      <c r="E391" s="2"/>
-      <c r="F391" s="2"/>
-      <c r="G391" s="2"/>
-    </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A392" s="2" t="s">
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A392" t="s">
         <v>875</v>
       </c>
-      <c r="B392" s="2" t="s">
+      <c r="B392" t="s">
         <v>873</v>
       </c>
-      <c r="C392" s="2"/>
-      <c r="D392" s="2"/>
-      <c r="E392" s="2"/>
-      <c r="F392" s="2"/>
-      <c r="G392" s="2"/>
-    </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A393" s="2" t="s">
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A393" t="s">
         <v>877</v>
       </c>
-      <c r="B393" s="2" t="s">
+      <c r="B393" t="s">
         <v>878</v>
       </c>
-      <c r="C393" s="2" t="s">
+      <c r="C393" t="s">
         <v>879</v>
       </c>
-      <c r="D393" s="2"/>
-      <c r="E393" s="2"/>
-      <c r="F393" s="2"/>
-      <c r="G393" s="2"/>
-    </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A394" s="2" t="s">
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A394" t="s">
         <v>875</v>
       </c>
-      <c r="B394" s="2" t="s">
+      <c r="B394" t="s">
         <v>880</v>
       </c>
-      <c r="C394" s="2" t="s">
+      <c r="C394" t="s">
         <v>881</v>
       </c>
-      <c r="D394" s="2"/>
-      <c r="E394" s="2"/>
-      <c r="F394" s="2"/>
-      <c r="G394" s="2"/>
-    </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A395" s="2" t="s">
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A395" t="s">
         <v>882</v>
       </c>
-      <c r="B395" s="2" t="s">
+      <c r="B395" t="s">
         <v>885</v>
       </c>
-      <c r="C395" s="2"/>
-      <c r="D395" s="2"/>
-      <c r="E395" s="2"/>
-      <c r="F395" s="2"/>
-      <c r="G395" s="2"/>
-    </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A396" s="2" t="s">
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A396" t="s">
         <v>883</v>
       </c>
-      <c r="B396" s="2" t="s">
+      <c r="B396" t="s">
         <v>890</v>
       </c>
-      <c r="C396" s="2"/>
-      <c r="D396" s="2"/>
-      <c r="E396" s="2"/>
-      <c r="F396" s="2"/>
-      <c r="G396" s="2"/>
-    </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A397" s="2" t="s">
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A397" t="s">
         <v>884</v>
       </c>
-      <c r="B397" s="2" t="s">
+      <c r="B397" t="s">
         <v>888</v>
       </c>
-      <c r="C397" s="2"/>
-      <c r="D397" s="2"/>
-      <c r="E397" s="2"/>
-      <c r="F397" s="2"/>
-      <c r="G397" s="2"/>
-    </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A398" s="2" t="s">
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A398" t="s">
         <v>883</v>
       </c>
-      <c r="B398" s="2" t="s">
+      <c r="B398" t="s">
         <v>892</v>
       </c>
-      <c r="C398" s="2"/>
-      <c r="D398" s="2"/>
-      <c r="E398" s="2"/>
-      <c r="F398" s="2"/>
-      <c r="G398" s="2"/>
-    </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A399" s="2" t="s">
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A399" t="s">
         <v>893</v>
       </c>
-      <c r="B399" s="2" t="s">
+      <c r="B399" t="s">
         <v>889</v>
       </c>
-      <c r="C399" s="2"/>
-      <c r="D399" s="2"/>
-      <c r="E399" s="2"/>
-      <c r="F399" s="2"/>
-      <c r="G399" s="2"/>
-    </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A400" s="2" t="s">
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A400" t="s">
         <v>894</v>
       </c>
-      <c r="B400" s="2" t="s">
+      <c r="B400" t="s">
         <v>890</v>
       </c>
-      <c r="C400" s="2"/>
-      <c r="D400" s="2"/>
-      <c r="E400" s="2"/>
-      <c r="F400" s="2"/>
-      <c r="G400" s="2"/>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
@@ -14836,7 +14771,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="497" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>208</v>
       </c>
@@ -14844,7 +14779,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="498" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>1109</v>
       </c>
@@ -14852,7 +14787,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="499" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>1112</v>
       </c>
@@ -14863,7 +14798,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="500" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>1115</v>
       </c>
@@ -14874,7 +14809,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="501" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>8</v>
       </c>
@@ -14882,7 +14817,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="502" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
         <v>1119</v>
       </c>
@@ -14890,7 +14825,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="503" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
         <v>8</v>
       </c>
@@ -14898,263 +14833,285 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="504" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
         <v>1122</v>
       </c>
       <c r="B504" t="s">
         <v>1123</v>
       </c>
-    </row>
-    <row r="505" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A505" s="1" t="s">
+      <c r="E504" s="2"/>
+      <c r="F504" s="2"/>
+      <c r="G504" s="2"/>
+      <c r="H504" s="2"/>
+      <c r="I504" s="2"/>
+      <c r="J504" s="2"/>
+    </row>
+    <row r="505" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A505" s="2" t="s">
         <v>1124</v>
       </c>
-      <c r="B505" s="1"/>
-      <c r="C505" s="1"/>
-      <c r="D505" s="1"/>
-      <c r="E505" s="1"/>
-      <c r="F505" s="1"/>
-      <c r="G505" s="1"/>
-      <c r="H505" s="1"/>
-      <c r="I505" s="1"/>
-    </row>
-    <row r="506" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A506" s="1" t="s">
+      <c r="B505" s="2" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C505" s="2"/>
+      <c r="D505" s="2"/>
+      <c r="E505" s="2"/>
+      <c r="F505" s="2"/>
+      <c r="G505" s="2"/>
+      <c r="H505" s="2"/>
+      <c r="I505" s="2"/>
+      <c r="J505" s="2"/>
+    </row>
+    <row r="506" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A506" s="2" t="s">
         <v>1125</v>
       </c>
-      <c r="B506" s="1"/>
-      <c r="C506" s="1"/>
-      <c r="D506" s="1"/>
-      <c r="E506" s="1"/>
-      <c r="F506" s="1"/>
-      <c r="G506" s="1"/>
-      <c r="H506" s="1"/>
-      <c r="I506" s="1"/>
-    </row>
-    <row r="507" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A507" s="1" t="s">
+      <c r="B506" s="2" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C506" s="2"/>
+      <c r="D506" s="2"/>
+      <c r="E506" s="2"/>
+      <c r="F506" s="2"/>
+      <c r="G506" s="2"/>
+      <c r="H506" s="2"/>
+      <c r="I506" s="2"/>
+      <c r="J506" s="2"/>
+    </row>
+    <row r="507" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A507" s="2" t="s">
         <v>1126</v>
       </c>
-      <c r="B507" s="1"/>
-      <c r="C507" s="1"/>
-      <c r="D507" s="1"/>
-      <c r="E507" s="1"/>
-      <c r="F507" s="1"/>
-      <c r="G507" s="1"/>
-      <c r="H507" s="1"/>
-      <c r="I507" s="1"/>
-    </row>
-    <row r="508" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A508" s="1" t="s">
+      <c r="B507" s="2" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C507" s="2"/>
+      <c r="D507" s="2"/>
+      <c r="E507" s="2"/>
+      <c r="F507" s="2"/>
+      <c r="G507" s="2"/>
+      <c r="H507" s="2"/>
+      <c r="I507" s="2"/>
+      <c r="J507" s="2"/>
+    </row>
+    <row r="508" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A508" s="2" t="s">
         <v>1125</v>
       </c>
-      <c r="B508" s="1"/>
-      <c r="C508" s="1"/>
-      <c r="D508" s="1"/>
-      <c r="E508" s="1"/>
-      <c r="F508" s="1"/>
-      <c r="G508" s="1"/>
-      <c r="H508" s="1"/>
-      <c r="I508" s="1"/>
-    </row>
-    <row r="509" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A509" s="1" t="s">
+      <c r="B508" s="2" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C508" s="2"/>
+      <c r="D508" s="2"/>
+      <c r="E508" s="2"/>
+      <c r="F508" s="2"/>
+      <c r="G508" s="2"/>
+      <c r="H508" s="2"/>
+      <c r="I508" s="2"/>
+      <c r="J508" s="2"/>
+    </row>
+    <row r="509" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A509" s="2" t="s">
         <v>1127</v>
       </c>
-      <c r="B509" s="1"/>
-      <c r="C509" s="1"/>
-      <c r="D509" s="1"/>
-      <c r="E509" s="1"/>
-      <c r="F509" s="1"/>
-      <c r="G509" s="1"/>
-      <c r="H509" s="1"/>
-      <c r="I509" s="1"/>
-    </row>
-    <row r="510" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A510" s="1" t="s">
+      <c r="B509" s="2" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C509" s="2" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D509" s="2"/>
+      <c r="E509" s="2"/>
+      <c r="F509" s="2"/>
+      <c r="G509" s="2"/>
+      <c r="H509" s="2"/>
+      <c r="I509" s="2"/>
+      <c r="J509" s="2"/>
+    </row>
+    <row r="510" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A510" s="2" t="s">
         <v>1125</v>
       </c>
-      <c r="B510" s="1"/>
-      <c r="C510" s="1"/>
-      <c r="D510" s="1"/>
-      <c r="E510" s="1"/>
-      <c r="F510" s="1"/>
-      <c r="G510" s="1"/>
-      <c r="H510" s="1"/>
-      <c r="I510" s="1"/>
-    </row>
-    <row r="511" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A511" s="1" t="s">
+      <c r="B510" s="2" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C510" s="2" t="s">
+        <v>1145</v>
+      </c>
+      <c r="D510" s="2"/>
+      <c r="E510" s="2"/>
+      <c r="F510" s="2"/>
+      <c r="G510" s="2"/>
+      <c r="H510" s="2"/>
+      <c r="I510" s="2"/>
+      <c r="J510" s="2"/>
+    </row>
+    <row r="511" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A511" s="2" t="s">
         <v>1128</v>
       </c>
-      <c r="B511" s="1"/>
-      <c r="C511" s="1"/>
-      <c r="D511" s="1"/>
-      <c r="E511" s="1"/>
-      <c r="F511" s="1"/>
-      <c r="G511" s="1"/>
-      <c r="H511" s="1"/>
-      <c r="I511" s="1"/>
-    </row>
-    <row r="512" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A512" s="1" t="s">
+      <c r="B511" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C511" s="2" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D511" s="2"/>
+      <c r="E511" s="2"/>
+      <c r="F511" s="2"/>
+      <c r="G511" s="2"/>
+      <c r="H511" s="2"/>
+      <c r="I511" s="2"/>
+      <c r="J511" s="2"/>
+    </row>
+    <row r="512" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A512" s="2" t="s">
         <v>1125</v>
       </c>
-      <c r="B512" s="1"/>
-      <c r="C512" s="1"/>
-      <c r="D512" s="1"/>
-      <c r="E512" s="1"/>
-      <c r="F512" s="1"/>
-      <c r="G512" s="1"/>
-      <c r="H512" s="1"/>
-      <c r="I512" s="1"/>
-    </row>
-    <row r="513" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A513" s="1" t="s">
+      <c r="B512" s="2" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C512" s="2" t="s">
+        <v>1139</v>
+      </c>
+      <c r="D512" s="2"/>
+      <c r="E512" s="2"/>
+      <c r="F512" s="2"/>
+      <c r="G512" s="2"/>
+      <c r="H512" s="2"/>
+      <c r="I512" s="2"/>
+      <c r="J512" s="2"/>
+    </row>
+    <row r="513" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A513" s="2" t="s">
         <v>1129</v>
       </c>
-      <c r="B513" s="1" t="s">
-        <v>1130</v>
-      </c>
-      <c r="C513" s="1" t="s">
-        <v>1131</v>
-      </c>
-      <c r="D513" s="1" t="s">
-        <v>1132</v>
-      </c>
-      <c r="E513" s="1" t="s">
+      <c r="B513" s="2" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C513" s="2"/>
+      <c r="D513" s="2"/>
+      <c r="E513" s="2"/>
+      <c r="F513" s="2"/>
+      <c r="G513" s="2"/>
+      <c r="H513" s="2"/>
+      <c r="I513" s="2"/>
+      <c r="J513" s="2"/>
+    </row>
+    <row r="514" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A514" s="2" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B514" s="2" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C514" s="2"/>
+      <c r="D514" s="2"/>
+      <c r="E514" s="2"/>
+      <c r="F514" s="2"/>
+      <c r="G514" s="2"/>
+      <c r="H514" s="2"/>
+      <c r="I514" s="2"/>
+      <c r="J514" s="2"/>
+    </row>
+    <row r="515" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A515" s="2" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B515" s="2" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C515" s="2"/>
+      <c r="D515" s="2"/>
+    </row>
+    <row r="516" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A516" s="2" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B516" s="2" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C516" s="2"/>
+      <c r="D516" s="2"/>
+    </row>
+    <row r="517" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A517" s="2" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B517" s="2" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C517" s="2"/>
+      <c r="D517" s="2"/>
+    </row>
+    <row r="518" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A518" s="2" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B518" s="2" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C518" s="2"/>
+      <c r="D518" s="2"/>
+    </row>
+    <row r="519" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A519" s="2" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B519" s="2" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C519" s="2"/>
+      <c r="D519" s="2"/>
+    </row>
+    <row r="520" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A520" s="2" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B520" s="2" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C520" s="2"/>
+      <c r="D520" s="2"/>
+    </row>
+    <row r="521" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A521" s="2" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B521" s="2" t="s">
         <v>1133</v>
       </c>
-      <c r="F513" s="1" t="s">
-        <v>1134</v>
-      </c>
-      <c r="G513" s="1" t="s">
-        <v>1135</v>
-      </c>
-      <c r="H513" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="I513" s="1" t="s">
-        <v>1137</v>
-      </c>
-    </row>
-    <row r="514" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A514" s="1" t="s">
-        <v>1125</v>
-      </c>
-      <c r="B514" s="1" t="s">
+      <c r="C521" s="2"/>
+      <c r="D521" s="2"/>
+    </row>
+    <row r="522" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A522" s="2" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B522" s="2" t="s">
         <v>1138</v>
       </c>
-      <c r="C514" s="1" t="s">
-        <v>1138</v>
-      </c>
-      <c r="D514" s="1" t="s">
-        <v>1138</v>
-      </c>
-      <c r="E514" s="1" t="s">
-        <v>1138</v>
-      </c>
-      <c r="F514" s="1" t="s">
-        <v>1138</v>
-      </c>
-      <c r="G514" s="1" t="s">
-        <v>1138</v>
-      </c>
-      <c r="H514" s="1" t="s">
-        <v>1139</v>
-      </c>
-      <c r="I514" s="1" t="s">
-        <v>1138</v>
-      </c>
-    </row>
-    <row r="515" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A515" t="s">
-        <v>1140</v>
-      </c>
-      <c r="B515" t="s">
-        <v>1141</v>
-      </c>
-      <c r="C515" t="s">
-        <v>1142</v>
-      </c>
-    </row>
-    <row r="516" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A516" t="s">
-        <v>1143</v>
-      </c>
-      <c r="B516" t="s">
-        <v>1144</v>
-      </c>
-      <c r="C516" t="s">
-        <v>1145</v>
-      </c>
-    </row>
-    <row r="517" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A517" t="s">
-        <v>1146</v>
-      </c>
-      <c r="B517" t="s">
-        <v>1147</v>
-      </c>
-    </row>
-    <row r="518" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A518" t="s">
-        <v>1148</v>
-      </c>
-      <c r="B518" t="s">
-        <v>1149</v>
-      </c>
-    </row>
-    <row r="519" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A519" t="s">
-        <v>1150</v>
-      </c>
-      <c r="B519" t="s">
-        <v>1151</v>
-      </c>
-    </row>
-    <row r="520" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A520" t="s">
-        <v>1152</v>
-      </c>
-      <c r="B520" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="521" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A521" t="s">
-        <v>1154</v>
-      </c>
-      <c r="B521" t="s">
-        <v>1155</v>
-      </c>
-    </row>
-    <row r="522" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A522" t="s">
-        <v>1156</v>
-      </c>
-      <c r="B522" t="s">
-        <v>1157</v>
-      </c>
-    </row>
-    <row r="523" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C522" s="2"/>
+      <c r="D522" s="2"/>
+    </row>
+    <row r="523" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
         <v>1158</v>
       </c>
       <c r="B523" t="s">
-        <v>1159</v>
-      </c>
-    </row>
-    <row r="524" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="524" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
         <v>1160</v>
       </c>
       <c r="B524" t="s">
-        <v>1161</v>
-      </c>
-    </row>
-    <row r="525" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="525" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
         <v>1162</v>
       </c>
@@ -15162,7 +15119,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="526" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
         <v>1164</v>
       </c>
@@ -15170,14 +15127,20 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="527" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
         <v>1166</v>
       </c>
-    </row>
-    <row r="528" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B527" s="2" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="528" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
         <v>1167</v>
+      </c>
+      <c r="B528" s="2" t="s">
+        <v>1138</v>
       </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.3">
@@ -15270,17 +15233,23 @@
       <c r="A539" t="s">
         <v>1190</v>
       </c>
+      <c r="B539" s="2" t="s">
+        <v>1132</v>
+      </c>
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
         <v>1191</v>
       </c>
+      <c r="B540" s="2" t="s">
+        <v>1138</v>
+      </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
         <v>1192</v>
       </c>
-      <c r="B541" t="s">
+      <c r="B541" s="2" t="s">
         <v>1193</v>
       </c>
       <c r="C541" t="s">
@@ -15607,9 +15576,6 @@
       <c r="B577" t="s">
         <v>1270</v>
       </c>
-      <c r="C577" t="s">
-        <v>1271</v>
-      </c>
     </row>
     <row r="578" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
@@ -15618,64 +15584,62 @@
       <c r="B578" t="s">
         <v>1273</v>
       </c>
-      <c r="C578" t="s">
-        <v>1274</v>
-      </c>
     </row>
     <row r="579" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A579" s="1" t="s">
+      <c r="A579" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B579" s="1"/>
-      <c r="C579" s="1"/>
-      <c r="D579" s="1"/>
+      <c r="B579" s="2" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C579" s="2" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D579" s="2"/>
     </row>
     <row r="580" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A580" s="1" t="s">
+      <c r="A580" s="2" t="s">
         <v>1275</v>
       </c>
-      <c r="B580" s="1"/>
-      <c r="C580" s="1"/>
-      <c r="D580" s="1"/>
+      <c r="B580" s="2" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C580" s="2" t="s">
+        <v>1283</v>
+      </c>
+      <c r="D580" s="2"/>
     </row>
     <row r="581" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A581" s="1" t="s">
+      <c r="A581" s="2" t="s">
         <v>1276</v>
       </c>
-      <c r="B581" s="1" t="s">
+      <c r="B581" s="2" t="s">
         <v>1277</v>
       </c>
-      <c r="C581" s="1" t="s">
-        <v>1278</v>
-      </c>
-      <c r="D581" s="1" t="s">
-        <v>1279</v>
-      </c>
+      <c r="C581" s="2"/>
+      <c r="D581" s="2"/>
     </row>
     <row r="582" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A582" s="1" t="s">
+      <c r="A582" s="2" t="s">
         <v>1280</v>
       </c>
-      <c r="B582" s="1" t="s">
+      <c r="B582" s="2" t="s">
         <v>1281</v>
       </c>
-      <c r="C582" s="1" t="s">
-        <v>1282</v>
-      </c>
-      <c r="D582" s="1" t="s">
-        <v>1283</v>
-      </c>
+      <c r="C582" s="2"/>
+      <c r="D582" s="2"/>
     </row>
     <row r="583" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A583" t="s">
+      <c r="A583" s="2" t="s">
         <v>1284</v>
       </c>
-      <c r="B583" t="s">
+      <c r="B583" s="2" t="s">
         <v>1285</v>
       </c>
-      <c r="C583" t="s">
+      <c r="C583" s="2" t="s">
         <v>1286</v>
       </c>
+      <c r="D583" s="2"/>
     </row>
     <row r="584" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
@@ -15692,53 +15656,55 @@
       <c r="A585" t="s">
         <v>1290</v>
       </c>
+      <c r="B585" t="s">
+        <v>1271</v>
+      </c>
     </row>
     <row r="586" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
         <v>1291</v>
       </c>
+      <c r="B586" t="s">
+        <v>1274</v>
+      </c>
     </row>
     <row r="587" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A587" s="1" t="s">
+      <c r="A587" s="2" t="s">
         <v>1292</v>
       </c>
-      <c r="B587" s="1"/>
-      <c r="C587" s="1"/>
+      <c r="B587" s="2" t="s">
+        <v>1294</v>
+      </c>
     </row>
     <row r="588" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A588" s="1" t="s">
+      <c r="A588" s="2" t="s">
         <v>1293</v>
       </c>
-      <c r="B588" s="1"/>
-      <c r="C588" s="1"/>
+      <c r="B588" s="2" t="s">
+        <v>1296</v>
+      </c>
     </row>
     <row r="589" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A589" s="1" t="s">
+      <c r="A589" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B589" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="C589" s="1" t="s">
+      <c r="B589" s="2" t="s">
         <v>1295</v>
       </c>
     </row>
     <row r="590" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A590" s="1" t="s">
+      <c r="A590" s="2" t="s">
         <v>1293</v>
       </c>
-      <c r="B590" s="1" t="s">
+      <c r="B590" s="2" t="s">
         <v>1296</v>
       </c>
-      <c r="C590" s="1" t="s">
-        <v>1296</v>
-      </c>
     </row>
     <row r="591" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A591" t="s">
+      <c r="A591" s="2" t="s">
         <v>1297</v>
       </c>
-      <c r="B591" t="s">
+      <c r="B591" s="2" t="s">
         <v>1298</v>
       </c>
     </row>
@@ -15750,7 +15716,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="593" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A593" t="s">
         <v>8</v>
       </c>
@@ -15758,7 +15724,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="594" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A594" t="s">
         <v>1302</v>
       </c>
@@ -15766,7 +15732,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="595" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A595" t="s">
         <v>1304</v>
       </c>
@@ -15780,7 +15746,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="596" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A596" t="s">
         <v>1308</v>
       </c>
@@ -15794,7 +15760,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="597" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A597" t="s">
         <v>1312</v>
       </c>
@@ -15805,7 +15771,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="598" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A598" t="s">
         <v>1315</v>
       </c>
@@ -15815,460 +15781,487 @@
       <c r="C598" t="s">
         <v>1317</v>
       </c>
-    </row>
-    <row r="599" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A599" s="1" t="s">
+      <c r="E598" s="2"/>
+      <c r="F598" s="2"/>
+      <c r="G598" s="2"/>
+    </row>
+    <row r="599" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A599" s="2" t="s">
         <v>1318</v>
       </c>
-      <c r="B599" s="1"/>
-      <c r="C599" s="1"/>
-      <c r="D599" s="1"/>
-      <c r="E599" s="1"/>
-      <c r="F599" s="1"/>
-    </row>
-    <row r="600" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A600" s="1" t="s">
+      <c r="B599" s="2" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C599" s="2" t="s">
+        <v>1333</v>
+      </c>
+      <c r="E599" s="2"/>
+      <c r="F599" s="2"/>
+      <c r="G599" s="2"/>
+    </row>
+    <row r="600" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A600" s="2" t="s">
         <v>1319</v>
       </c>
-      <c r="B600" s="1"/>
-      <c r="C600" s="1"/>
-      <c r="D600" s="1"/>
-      <c r="E600" s="1"/>
-      <c r="F600" s="1"/>
-    </row>
-    <row r="601" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A601" s="1" t="s">
+      <c r="B600" s="2" t="s">
+        <v>1336</v>
+      </c>
+      <c r="C600" s="2" t="s">
+        <v>1337</v>
+      </c>
+      <c r="E600" s="2"/>
+      <c r="F600" s="2"/>
+      <c r="G600" s="2"/>
+    </row>
+    <row r="601" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A601" s="2" t="s">
         <v>1320</v>
       </c>
-      <c r="B601" s="1"/>
-      <c r="C601" s="1"/>
-      <c r="D601" s="1"/>
-      <c r="E601" s="1"/>
-      <c r="F601" s="1"/>
-    </row>
-    <row r="602" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A602" s="1" t="s">
+      <c r="B601" s="2" t="s">
+        <v>1323</v>
+      </c>
+      <c r="C601" s="2" t="s">
+        <v>1324</v>
+      </c>
+      <c r="E601" s="2"/>
+      <c r="F601" s="2"/>
+      <c r="G601" s="2"/>
+    </row>
+    <row r="602" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A602" s="2" t="s">
         <v>1319</v>
       </c>
-      <c r="B602" s="1"/>
-      <c r="C602" s="1"/>
-      <c r="D602" s="1"/>
-      <c r="E602" s="1"/>
-      <c r="F602" s="1"/>
-    </row>
-    <row r="603" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A603" s="1" t="s">
+      <c r="B602" s="2" t="s">
+        <v>1328</v>
+      </c>
+      <c r="C602" s="2" t="s">
+        <v>1329</v>
+      </c>
+      <c r="E602" s="2"/>
+      <c r="F602" s="2"/>
+      <c r="G602" s="2"/>
+    </row>
+    <row r="603" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A603" s="2" t="s">
         <v>1321</v>
       </c>
-      <c r="B603" s="1"/>
-      <c r="C603" s="1"/>
-      <c r="D603" s="1"/>
-      <c r="E603" s="1"/>
-      <c r="F603" s="1"/>
-    </row>
-    <row r="604" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A604" s="1" t="s">
+      <c r="B603" s="2" t="s">
+        <v>1325</v>
+      </c>
+      <c r="C603" s="2" t="s">
+        <v>1326</v>
+      </c>
+      <c r="D603" s="2"/>
+      <c r="E603" s="2"/>
+      <c r="F603" s="2"/>
+      <c r="G603" s="2"/>
+    </row>
+    <row r="604" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A604" s="2" t="s">
         <v>1319</v>
       </c>
-      <c r="B604" s="1"/>
-      <c r="C604" s="1"/>
-      <c r="D604" s="1"/>
-      <c r="E604" s="1"/>
-      <c r="F604" s="1"/>
-    </row>
-    <row r="605" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A605" s="1" t="s">
+      <c r="B604" s="2" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C604" s="2" t="s">
+        <v>1329</v>
+      </c>
+      <c r="D604" s="2"/>
+      <c r="E604" s="2"/>
+      <c r="F604" s="2"/>
+      <c r="G604" s="2"/>
+    </row>
+    <row r="605" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A605" s="2" t="s">
         <v>1322</v>
       </c>
-      <c r="B605" s="1" t="s">
-        <v>1323</v>
-      </c>
-      <c r="C605" s="1" t="s">
-        <v>1324</v>
-      </c>
-      <c r="D605" s="1" t="s">
-        <v>1325</v>
-      </c>
-      <c r="E605" s="1" t="s">
-        <v>1326</v>
-      </c>
-      <c r="F605" s="1" t="s">
+      <c r="B605" s="2" t="s">
         <v>1327</v>
       </c>
-    </row>
-    <row r="606" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A606" s="1" t="s">
+      <c r="F605" s="2"/>
+      <c r="G605" s="2"/>
+    </row>
+    <row r="606" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A606" s="2" t="s">
         <v>1319</v>
       </c>
-      <c r="B606" s="1" t="s">
-        <v>1328</v>
-      </c>
-      <c r="C606" s="1" t="s">
-        <v>1329</v>
-      </c>
-      <c r="D606" s="1" t="s">
+      <c r="B606" s="2" t="s">
         <v>1330</v>
       </c>
-      <c r="E606" s="1" t="s">
-        <v>1329</v>
-      </c>
-      <c r="F606" s="1" t="s">
-        <v>1330</v>
-      </c>
-    </row>
-    <row r="607" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A607" s="1" t="s">
+      <c r="F606" s="2"/>
+      <c r="G606" s="2"/>
+    </row>
+    <row r="607" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A607" s="2" t="s">
         <v>1331</v>
       </c>
-      <c r="B607" s="1" t="s">
-        <v>1332</v>
-      </c>
-      <c r="C607" s="1" t="s">
-        <v>1333</v>
-      </c>
-      <c r="D607" s="1" t="s">
+      <c r="B607" s="2" t="s">
         <v>1334</v>
       </c>
-      <c r="E607" s="1"/>
-      <c r="F607" s="1"/>
-    </row>
-    <row r="608" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A608" t="s">
+      <c r="F607" s="2"/>
+      <c r="G607" s="2"/>
+    </row>
+    <row r="608" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A608" s="2" t="s">
         <v>1335</v>
       </c>
-      <c r="B608" t="s">
+      <c r="B608" s="2" t="s">
         <v>1336</v>
       </c>
-      <c r="C608" t="s">
-        <v>1337</v>
-      </c>
-      <c r="D608" t="s">
-        <v>1336</v>
-      </c>
-    </row>
-    <row r="609" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A609" s="1" t="s">
+      <c r="F608" s="2"/>
+      <c r="G608" s="2"/>
+    </row>
+    <row r="609" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A609" s="2" t="s">
         <v>1338</v>
       </c>
-      <c r="C609" s="2"/>
-      <c r="D609" s="2"/>
-    </row>
-    <row r="610" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A610" s="1" t="s">
+      <c r="B609" s="2" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="610" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A610" s="2" t="s">
         <v>1341</v>
       </c>
-      <c r="C610" s="2"/>
-      <c r="D610" s="2"/>
-    </row>
-    <row r="611" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A611" s="1" t="s">
+      <c r="B610" s="2" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="611" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A611" s="2" t="s">
         <v>1344</v>
       </c>
-      <c r="B611" s="1" t="s">
+      <c r="B611" s="2" t="s">
         <v>1345</v>
       </c>
-      <c r="C611" s="2"/>
-      <c r="D611" s="2"/>
-    </row>
-    <row r="612" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A612" s="1" t="s">
+    </row>
+    <row r="612" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A612" s="2" t="s">
         <v>1346</v>
       </c>
-      <c r="B612" s="1" t="s">
+      <c r="B612" s="2" t="s">
         <v>1347</v>
       </c>
-      <c r="C612" s="2"/>
-      <c r="D612" s="2"/>
-    </row>
-    <row r="613" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A613" s="1" t="s">
+    </row>
+    <row r="613" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A613" s="2" t="s">
         <v>1348</v>
       </c>
-      <c r="B613" s="1" t="s">
+      <c r="B613" s="2" t="s">
         <v>1349</v>
       </c>
-      <c r="C613" s="2"/>
-      <c r="D613" s="2"/>
-    </row>
-    <row r="614" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A614" s="1" t="s">
+    </row>
+    <row r="614" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A614" s="2" t="s">
         <v>1350</v>
       </c>
-      <c r="B614" s="1" t="s">
+      <c r="B614" s="2" t="s">
         <v>1351</v>
       </c>
-      <c r="C614" s="2"/>
-      <c r="D614" s="2"/>
-    </row>
-    <row r="615" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A615" s="1" t="s">
+    </row>
+    <row r="615" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A615" s="2" t="s">
         <v>1352</v>
       </c>
-      <c r="B615" s="1" t="s">
+      <c r="B615" s="2" t="s">
         <v>1353</v>
       </c>
-      <c r="C615" s="2"/>
-      <c r="D615" s="2"/>
-    </row>
-    <row r="616" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A616" s="1" t="s">
+    </row>
+    <row r="616" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A616" s="2" t="s">
         <v>1355</v>
       </c>
-      <c r="B616" s="1" t="s">
+      <c r="B616" s="2" t="s">
         <v>1356</v>
       </c>
       <c r="C616" s="2"/>
       <c r="D616" s="2"/>
-    </row>
-    <row r="617" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E616" s="2"/>
+    </row>
+    <row r="617" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A617" s="2" t="s">
         <v>1358</v>
       </c>
       <c r="B617" s="2" t="s">
         <v>1340</v>
       </c>
-      <c r="C617" s="1"/>
-      <c r="D617" s="1"/>
-    </row>
-    <row r="618" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C617" s="2"/>
+      <c r="D617" s="2"/>
+      <c r="E617" s="2"/>
+    </row>
+    <row r="618" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A618" s="2" t="s">
         <v>1359</v>
       </c>
       <c r="B618" s="2" t="s">
         <v>1343</v>
       </c>
-      <c r="C618" s="1"/>
-      <c r="D618" s="1"/>
-    </row>
-    <row r="619" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A619" s="1" t="s">
+      <c r="C618" s="2"/>
+      <c r="D618" s="2"/>
+      <c r="E618" s="2"/>
+    </row>
+    <row r="619" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A619" s="2" t="s">
         <v>1360</v>
       </c>
-      <c r="B619" s="1" t="s">
+      <c r="B619" s="2" t="s">
         <v>1354</v>
       </c>
-      <c r="C619" s="1"/>
-      <c r="D619" s="1"/>
-    </row>
-    <row r="620" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A620" s="1" t="s">
+      <c r="C619" s="2"/>
+      <c r="D619" s="2"/>
+      <c r="E619" s="2"/>
+    </row>
+    <row r="620" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A620" s="2" t="s">
         <v>1361</v>
       </c>
-      <c r="B620" s="1" t="s">
+      <c r="B620" s="2" t="s">
         <v>1357</v>
       </c>
-      <c r="C620" s="1"/>
-      <c r="D620" s="1"/>
-    </row>
-    <row r="621" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A621" s="1" t="s">
+      <c r="C620" s="2"/>
+      <c r="D620" s="2"/>
+      <c r="E620" s="2"/>
+    </row>
+    <row r="621" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A621" s="2" t="s">
         <v>1362</v>
       </c>
-      <c r="B621" s="1" t="s">
+      <c r="B621" s="2" t="s">
+        <v>1386</v>
+      </c>
+      <c r="C621" s="2"/>
+      <c r="D621" s="2"/>
+      <c r="E621" s="2"/>
+    </row>
+    <row r="622" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A622" s="2" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B622" s="2" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C622" s="2"/>
+      <c r="D622" s="2"/>
+      <c r="E622" s="2"/>
+    </row>
+    <row r="623" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A623" s="2" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B623" s="2" t="s">
+        <v>1371</v>
+      </c>
+      <c r="C623" s="2" t="s">
+        <v>1372</v>
+      </c>
+      <c r="D623" s="2"/>
+      <c r="E623" s="2"/>
+    </row>
+    <row r="624" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A624" s="2" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B624" s="2" t="s">
+        <v>1374</v>
+      </c>
+      <c r="C624" s="2" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D624" s="2"/>
+      <c r="E624" s="2"/>
+    </row>
+    <row r="625" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A625" s="2" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B625" s="2" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C625" s="2"/>
+      <c r="D625" s="2"/>
+      <c r="E625" s="2"/>
+    </row>
+    <row r="626" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A626" s="2" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B626" s="2" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C626" s="2"/>
+      <c r="D626" s="2"/>
+      <c r="E626" s="2"/>
+    </row>
+    <row r="627" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A627" s="2" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B627" s="2" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C627" s="2" t="s">
+        <v>1379</v>
+      </c>
+      <c r="D627" s="2"/>
+      <c r="E627" s="2"/>
+    </row>
+    <row r="628" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A628" s="2" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B628" s="2" t="s">
+        <v>1381</v>
+      </c>
+      <c r="C628" s="2" t="s">
+        <v>1382</v>
+      </c>
+      <c r="D628" s="2"/>
+      <c r="E628" s="2"/>
+    </row>
+    <row r="629" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A629" s="2" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B629" s="2" t="s">
         <v>1366</v>
       </c>
-      <c r="C621" s="1"/>
-      <c r="D621" s="1"/>
-    </row>
-    <row r="622" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A622" s="1" t="s">
-        <v>1361</v>
-      </c>
-      <c r="B622" s="1" t="s">
+      <c r="C629" s="2"/>
+      <c r="D629" s="2"/>
+      <c r="E629" s="2"/>
+    </row>
+    <row r="630" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A630" s="2" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B630" s="2" t="s">
         <v>1369</v>
       </c>
-      <c r="C622" s="1"/>
-      <c r="D622" s="1"/>
-    </row>
-    <row r="623" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A623" s="1" t="s">
-        <v>1363</v>
-      </c>
-      <c r="B623" s="1" t="s">
-        <v>1367</v>
-      </c>
-      <c r="C623" s="1"/>
-      <c r="D623" s="1"/>
-    </row>
-    <row r="624" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A624" s="1" t="s">
-        <v>1361</v>
-      </c>
-      <c r="B624" s="1" t="s">
-        <v>1369</v>
-      </c>
-      <c r="C624" s="1"/>
-      <c r="D624" s="1"/>
-    </row>
-    <row r="625" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A625" s="1" t="s">
-        <v>1364</v>
-      </c>
-      <c r="B625" s="1" t="s">
-        <v>1368</v>
-      </c>
-      <c r="C625" s="1"/>
-      <c r="D625" s="1"/>
-    </row>
-    <row r="626" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A626" s="1" t="s">
-        <v>1361</v>
-      </c>
-      <c r="B626" s="1" t="s">
-        <v>1369</v>
-      </c>
-      <c r="C626" s="1"/>
-      <c r="D626" s="1"/>
-    </row>
-    <row r="627" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A627" s="1" t="s">
-        <v>1365</v>
-      </c>
-      <c r="B627" s="1" t="s">
-        <v>1371</v>
-      </c>
-      <c r="C627" s="1" t="s">
-        <v>1372</v>
-      </c>
-    </row>
-    <row r="628" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A628" s="1" t="s">
-        <v>1361</v>
-      </c>
-      <c r="B628" s="1" t="s">
-        <v>1374</v>
-      </c>
-      <c r="C628" s="1" t="s">
-        <v>1375</v>
-      </c>
-    </row>
-    <row r="629" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A629" s="1" t="s">
-        <v>1370</v>
-      </c>
-      <c r="B629" s="1" t="s">
+      <c r="C630" s="2"/>
+      <c r="D630" s="2"/>
+      <c r="E630" s="2"/>
+    </row>
+    <row r="631" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A631" s="2" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B631" s="2" t="s">
         <v>1377</v>
       </c>
-      <c r="D629" s="1"/>
-    </row>
-    <row r="630" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A630" s="1" t="s">
-        <v>1373</v>
-      </c>
-      <c r="B630" s="1" t="s">
+      <c r="C631" s="2"/>
+      <c r="D631" s="2"/>
+      <c r="E631" s="2"/>
+    </row>
+    <row r="632" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A632" s="2" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B632" s="2" t="s">
         <v>1381</v>
       </c>
-      <c r="D630" s="1"/>
-    </row>
-    <row r="631" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A631" s="1" t="s">
-        <v>1376</v>
-      </c>
-      <c r="B631" s="1" t="s">
-        <v>1378</v>
-      </c>
-      <c r="C631" s="1" t="s">
-        <v>1379</v>
-      </c>
-    </row>
-    <row r="632" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A632" s="1" t="s">
-        <v>1380</v>
-      </c>
-      <c r="B632" s="1" t="s">
-        <v>1381</v>
-      </c>
-      <c r="C632" s="1" t="s">
-        <v>1382</v>
-      </c>
-    </row>
-    <row r="633" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A633" s="1" t="s">
+      <c r="C632" s="2"/>
+      <c r="D632" s="2"/>
+      <c r="E632" s="2"/>
+    </row>
+    <row r="633" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A633" s="2" t="s">
         <v>1383</v>
       </c>
-      <c r="B633" s="1" t="s">
+      <c r="B633" s="2" t="s">
         <v>1384</v>
       </c>
-      <c r="D633" s="1" t="s">
-        <v>1386</v>
-      </c>
-    </row>
-    <row r="634" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A634" s="1" t="s">
+      <c r="C633" s="2"/>
+      <c r="D633" s="2"/>
+      <c r="E633" s="2"/>
+    </row>
+    <row r="634" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A634" s="2" t="s">
         <v>1387</v>
       </c>
-      <c r="B634" s="1" t="s">
+      <c r="B634" s="2" t="s">
         <v>1388</v>
       </c>
-      <c r="D634" s="1" t="s">
-        <v>1390</v>
-      </c>
-    </row>
-    <row r="635" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C634" s="2"/>
+      <c r="D634" s="2"/>
+      <c r="E634" s="2"/>
+    </row>
+    <row r="635" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A635" s="2" t="s">
         <v>1391</v>
       </c>
       <c r="B635" s="2" t="s">
         <v>1339</v>
       </c>
-      <c r="C635" s="1"/>
-      <c r="D635" s="1"/>
-    </row>
-    <row r="636" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C635" s="2"/>
+      <c r="D635" s="2"/>
+      <c r="E635" s="2"/>
+    </row>
+    <row r="636" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A636" s="2" t="s">
         <v>1392</v>
       </c>
       <c r="B636" s="2" t="s">
         <v>1342</v>
       </c>
-      <c r="C636" s="1"/>
-      <c r="D636" s="1"/>
-    </row>
-    <row r="637" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A637" s="1" t="s">
+      <c r="C636" s="2"/>
+      <c r="D636" s="2"/>
+      <c r="E636" s="2"/>
+    </row>
+    <row r="637" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A637" s="2" t="s">
         <v>1393</v>
       </c>
-      <c r="B637" s="1" t="s">
+      <c r="B637" s="2" t="s">
         <v>1385</v>
       </c>
-      <c r="C637" s="1"/>
-      <c r="D637" s="1"/>
-    </row>
-    <row r="638" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A638" s="1" t="s">
+      <c r="C637" s="2"/>
+      <c r="D637" s="2"/>
+      <c r="E637" s="2"/>
+    </row>
+    <row r="638" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A638" s="2" t="s">
         <v>1394</v>
       </c>
-      <c r="B638" s="1" t="s">
+      <c r="B638" s="2" t="s">
         <v>1389</v>
       </c>
-      <c r="C638" s="1"/>
-      <c r="D638" s="1"/>
-    </row>
-    <row r="639" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A639" t="s">
+      <c r="C638" s="2"/>
+      <c r="D638" s="2"/>
+      <c r="E638" s="2"/>
+    </row>
+    <row r="639" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A639" s="2" t="s">
         <v>1395</v>
       </c>
-      <c r="B639" t="s">
+      <c r="B639" s="2" t="s">
         <v>1396</v>
       </c>
-    </row>
-    <row r="640" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A640" t="s">
+      <c r="C639" s="2"/>
+      <c r="D639" s="2"/>
+      <c r="E639" s="2"/>
+    </row>
+    <row r="640" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A640" s="2" t="s">
         <v>1397</v>
       </c>
-      <c r="B640" t="s">
+      <c r="B640" s="2" t="s">
         <v>1398</v>
       </c>
-    </row>
-    <row r="641" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A641" t="s">
+      <c r="C640" s="2"/>
+      <c r="D640" s="2"/>
+      <c r="E640" s="2"/>
+    </row>
+    <row r="641" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A641" s="2" t="s">
         <v>1399</v>
       </c>
-      <c r="B641" t="s">
+      <c r="B641" s="2" t="s">
         <v>1400</v>
       </c>
-    </row>
-    <row r="642" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C641" s="2"/>
+      <c r="D641" s="2"/>
+      <c r="E641" s="2"/>
+    </row>
+    <row r="642" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A642" t="s">
         <v>1401</v>
       </c>
@@ -16276,57 +16269,55 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="643" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A643" s="1" t="s">
+    <row r="643" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A643" s="2" t="s">
         <v>1403</v>
       </c>
-      <c r="B643" s="1" t="s">
+      <c r="B643" s="2" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="644" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A644" s="2" t="s">
+        <v>1404</v>
+      </c>
+      <c r="B644" s="2" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="645" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A645" s="2" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B645" s="2" t="s">
         <v>1406</v>
       </c>
-      <c r="C643" s="1"/>
-    </row>
-    <row r="644" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A644" s="1" t="s">
+    </row>
+    <row r="646" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A646" s="2" t="s">
         <v>1404</v>
       </c>
-      <c r="B644" s="1" t="s">
+      <c r="B646" s="2" t="s">
         <v>1408</v>
       </c>
-      <c r="C644" s="1"/>
-    </row>
-    <row r="645" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A645" s="1" t="s">
-        <v>1405</v>
-      </c>
-      <c r="B645" s="1" t="s">
+    </row>
+    <row r="647" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A647" s="2" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B647" s="2" t="s">
         <v>1407</v>
       </c>
     </row>
-    <row r="646" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A646" s="1" t="s">
-        <v>1404</v>
-      </c>
-      <c r="B646" s="1" t="s">
+    <row r="648" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A648" s="2" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B648" s="2" t="s">
         <v>1408</v>
       </c>
     </row>
-    <row r="647" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A647" s="1" t="s">
-        <v>1409</v>
-      </c>
-      <c r="B647" s="1" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="648" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A648" s="1" t="s">
-        <v>1411</v>
-      </c>
-      <c r="B648" s="1" t="s">
-        <v>1412</v>
-      </c>
-    </row>
-    <row r="649" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A649" t="s">
         <v>75</v>
       </c>
@@ -16337,7 +16328,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="650" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A650" t="s">
         <v>1415</v>
       </c>
@@ -16348,59 +16339,69 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="651" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A651" t="s">
+    <row r="651" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A651" s="2" t="s">
         <v>1418</v>
       </c>
-    </row>
-    <row r="652" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A652" t="s">
+      <c r="B651" s="2" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C651" s="2"/>
+      <c r="D651" s="2"/>
+    </row>
+    <row r="652" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A652" s="2" t="s">
         <v>1419</v>
       </c>
-    </row>
-    <row r="653" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A653" t="s">
+      <c r="B652" s="2" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C652" s="2"/>
+      <c r="D652" s="2"/>
+    </row>
+    <row r="653" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A653" s="2" t="s">
         <v>1420</v>
       </c>
-      <c r="B653" t="s">
-        <v>1421</v>
-      </c>
-    </row>
-    <row r="654" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A654" t="s">
+      <c r="B653" s="2" t="s">
+        <v>1426</v>
+      </c>
+      <c r="C653" s="2"/>
+      <c r="D653" s="2"/>
+    </row>
+    <row r="654" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A654" s="2" t="s">
         <v>1419</v>
       </c>
-      <c r="B654" t="s">
-        <v>1422</v>
-      </c>
-    </row>
-    <row r="655" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A655" t="s">
+      <c r="B654" s="2" t="s">
+        <v>1430</v>
+      </c>
+      <c r="C654" s="2"/>
+      <c r="D654" s="2"/>
+    </row>
+    <row r="655" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A655" s="2" t="s">
         <v>1423</v>
       </c>
-      <c r="B655" t="s">
+      <c r="B655" s="2" t="s">
         <v>1424</v>
       </c>
-      <c r="C655" t="s">
+      <c r="C655" s="2" t="s">
         <v>1425</v>
       </c>
-      <c r="D655" t="s">
-        <v>1426</v>
-      </c>
-    </row>
-    <row r="656" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A656" t="s">
+      <c r="D655" s="2"/>
+    </row>
+    <row r="656" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A656" s="2" t="s">
         <v>1427</v>
       </c>
-      <c r="B656" t="s">
+      <c r="B656" s="2" t="s">
         <v>1428</v>
       </c>
-      <c r="C656" t="s">
+      <c r="C656" s="2" t="s">
         <v>1429</v>
       </c>
-      <c r="D656" t="s">
-        <v>1430</v>
-      </c>
+      <c r="D656" s="2"/>
     </row>
     <row r="657" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A657" t="s">
@@ -16517,90 +16518,87 @@
       </c>
     </row>
     <row r="669" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A669" s="1" t="s">
+      <c r="A669" s="2" t="s">
         <v>1459</v>
       </c>
-      <c r="B669" s="1"/>
-      <c r="C669" s="1"/>
+      <c r="B669" s="2" t="s">
+        <v>1463</v>
+      </c>
+      <c r="C669" s="2"/>
     </row>
     <row r="670" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A670" s="1" t="s">
+      <c r="A670" s="2" t="s">
         <v>1460</v>
       </c>
-      <c r="B670" s="1"/>
-      <c r="C670" s="1"/>
+      <c r="B670" s="2" t="s">
+        <v>1465</v>
+      </c>
+      <c r="C670" s="2"/>
     </row>
     <row r="671" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A671" s="1" t="s">
+      <c r="A671" s="2" t="s">
         <v>1461</v>
       </c>
-      <c r="B671" s="1" t="s">
+      <c r="B671" s="2" t="s">
         <v>1462</v>
       </c>
-      <c r="C671" s="1" t="s">
-        <v>1463</v>
-      </c>
+      <c r="C671" s="2"/>
     </row>
     <row r="672" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A672" s="1" t="s">
+      <c r="A672" s="2" t="s">
         <v>1460</v>
       </c>
-      <c r="B672" s="1" t="s">
+      <c r="B672" s="2" t="s">
         <v>1464</v>
       </c>
-      <c r="C672" s="1" t="s">
-        <v>1465</v>
-      </c>
+      <c r="C672" s="2"/>
     </row>
     <row r="673" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A673" t="s">
+      <c r="A673" s="2" t="s">
         <v>1466</v>
       </c>
+      <c r="B673" s="2" t="s">
+        <v>1469</v>
+      </c>
     </row>
     <row r="674" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A674" s="1" t="s">
+      <c r="A674" s="2" t="s">
         <v>1467</v>
       </c>
-      <c r="B674" s="1"/>
-      <c r="C674" s="1"/>
-      <c r="D674" s="1"/>
+      <c r="B674" s="2" t="s">
+        <v>1472</v>
+      </c>
     </row>
     <row r="675" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A675" s="1" t="s">
+      <c r="A675" s="2" t="s">
         <v>1468</v>
       </c>
-      <c r="B675" s="1" t="s">
-        <v>1469</v>
-      </c>
-      <c r="C675" s="1" t="s">
+      <c r="B675" s="2" t="s">
         <v>1470</v>
       </c>
-      <c r="D675" s="1" t="s">
+    </row>
+    <row r="676" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A676" s="2" t="s">
+        <v>1467</v>
+      </c>
+      <c r="B676" s="2" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="677" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A677" s="2" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B677" s="2" t="s">
         <v>1471</v>
       </c>
     </row>
-    <row r="676" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A676" s="1" t="s">
-        <v>1467</v>
-      </c>
-      <c r="B676" s="1" t="s">
+    <row r="678" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A678" s="2" t="s">
+        <v>1474</v>
+      </c>
+      <c r="B678" s="2" t="s">
         <v>1472</v>
-      </c>
-      <c r="C676" s="1" t="s">
-        <v>1472</v>
-      </c>
-      <c r="D676" s="1" t="s">
-        <v>1472</v>
-      </c>
-    </row>
-    <row r="677" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A677" s="1" t="s">
-        <v>1473</v>
-      </c>
-    </row>
-    <row r="678" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A678" s="1" t="s">
-        <v>1474</v>
       </c>
     </row>
     <row r="679" spans="1:7" x14ac:dyDescent="0.3">
@@ -17198,10 +17196,10 @@
       </c>
     </row>
     <row r="733" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A733" t="s">
+      <c r="A733" s="2" t="s">
         <v>1608</v>
       </c>
-      <c r="B733" t="s">
+      <c r="B733" s="2" t="s">
         <v>1626</v>
       </c>
       <c r="C733" t="s">
@@ -17209,10 +17207,10 @@
       </c>
     </row>
     <row r="734" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A734" t="s">
+      <c r="A734" s="2" t="s">
         <v>1633</v>
       </c>
-      <c r="B734" t="s">
+      <c r="B734" s="2" t="s">
         <v>1631</v>
       </c>
       <c r="C734" t="s">
@@ -17220,26 +17218,26 @@
       </c>
     </row>
     <row r="735" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A735" s="1" t="s">
+      <c r="A735" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="B735" s="1" t="s">
-        <v>1634</v>
+      <c r="B735" s="2" t="s">
+        <v>1635</v>
       </c>
     </row>
     <row r="736" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A736" s="1" t="s">
+      <c r="A736" s="2" t="s">
         <v>1636</v>
       </c>
-      <c r="B736" s="1" t="s">
+      <c r="B736" s="2" t="s">
         <v>1637</v>
       </c>
     </row>
     <row r="737" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A737" t="s">
+      <c r="A737" s="2" t="s">
         <v>1638</v>
       </c>
-      <c r="B737" t="s">
+      <c r="B737" s="2" t="s">
         <v>1639</v>
       </c>
       <c r="C737" t="s">
@@ -17247,10 +17245,10 @@
       </c>
     </row>
     <row r="738" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A738" t="s">
+      <c r="A738" s="2" t="s">
         <v>1641</v>
       </c>
-      <c r="B738" t="s">
+      <c r="B738" s="2" t="s">
         <v>1642</v>
       </c>
       <c r="C738" t="s">
@@ -17258,18 +17256,18 @@
       </c>
     </row>
     <row r="739" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A739" s="1" t="s">
+      <c r="A739" s="2" t="s">
         <v>1644</v>
       </c>
-      <c r="B739" s="1" t="s">
-        <v>1635</v>
+      <c r="B739" s="2" t="s">
+        <v>1634</v>
       </c>
     </row>
     <row r="740" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A740" s="1" t="s">
+      <c r="A740" s="2" t="s">
         <v>1645</v>
       </c>
-      <c r="B740" s="1" t="s">
+      <c r="B740" s="2" t="s">
         <v>1637</v>
       </c>
     </row>
@@ -18488,40 +18486,36 @@
       </c>
     </row>
     <row r="865" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A865" s="2" t="s">
+      <c r="A865" t="s">
         <v>1945</v>
       </c>
-      <c r="B865" s="2" t="s">
+      <c r="B865" t="s">
         <v>1949</v>
       </c>
-      <c r="C865" s="2"/>
     </row>
     <row r="866" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A866" s="2" t="s">
+      <c r="A866" t="s">
         <v>1946</v>
       </c>
-      <c r="B866" s="2" t="s">
+      <c r="B866" t="s">
         <v>1951</v>
       </c>
-      <c r="C866" s="2"/>
     </row>
     <row r="867" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A867" s="2" t="s">
+      <c r="A867" t="s">
         <v>1947</v>
       </c>
-      <c r="B867" s="2" t="s">
+      <c r="B867" t="s">
         <v>1948</v>
       </c>
-      <c r="C867" s="2"/>
     </row>
     <row r="868" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A868" s="2" t="s">
+      <c r="A868" t="s">
         <v>1946</v>
       </c>
-      <c r="B868" s="2" t="s">
+      <c r="B868" t="s">
         <v>1950</v>
       </c>
-      <c r="C868" s="2"/>
     </row>
     <row r="869" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A869" t="s">
@@ -19644,76 +19638,78 @@
       </c>
     </row>
     <row r="982" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A982" t="s">
+      <c r="A982" s="2" t="s">
         <v>2225</v>
       </c>
-      <c r="B982" t="s">
+      <c r="B982" s="2" t="s">
         <v>2226</v>
       </c>
+      <c r="C982" s="2"/>
+      <c r="D982" s="2"/>
     </row>
     <row r="983" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A983" s="1" t="s">
+      <c r="A983" s="2" t="s">
         <v>2227</v>
       </c>
-      <c r="B983" s="1"/>
-      <c r="C983" s="1"/>
-      <c r="D983" s="1"/>
+      <c r="B983" s="2" t="s">
+        <v>2234</v>
+      </c>
+      <c r="C983" s="2" t="s">
+        <v>2235</v>
+      </c>
+      <c r="D983" s="2"/>
     </row>
     <row r="984" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A984" s="1" t="s">
+      <c r="A984" s="2" t="s">
         <v>2228</v>
       </c>
-      <c r="B984" s="1"/>
-      <c r="C984" s="1"/>
-      <c r="D984" s="1"/>
+      <c r="B984" s="2" t="s">
+        <v>2238</v>
+      </c>
+      <c r="C984" s="2" t="s">
+        <v>2239</v>
+      </c>
+      <c r="D984" s="2"/>
     </row>
     <row r="985" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A985" s="1" t="s">
+      <c r="A985" s="2" t="s">
         <v>2229</v>
       </c>
-      <c r="B985" s="1" t="s">
+      <c r="B985" s="2" t="s">
         <v>2230</v>
       </c>
-      <c r="C985" s="1"/>
-      <c r="D985" s="1"/>
+      <c r="C985" s="2"/>
+      <c r="D985" s="2"/>
     </row>
     <row r="986" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A986" s="1" t="s">
+      <c r="A986" s="2" t="s">
         <v>2228</v>
       </c>
-      <c r="B986" s="1" t="s">
+      <c r="B986" s="2" t="s">
         <v>2231</v>
       </c>
-      <c r="C986" s="1"/>
-      <c r="D986" s="1"/>
+      <c r="C986" s="2"/>
+      <c r="D986" s="2"/>
     </row>
     <row r="987" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A987" s="1" t="s">
+      <c r="A987" s="2" t="s">
         <v>2232</v>
       </c>
-      <c r="B987" s="1" t="s">
+      <c r="B987" s="2" t="s">
         <v>2233</v>
       </c>
-      <c r="C987" s="1" t="s">
-        <v>2234</v>
-      </c>
-      <c r="D987" s="1" t="s">
-        <v>2235</v>
-      </c>
+      <c r="C987" s="2"/>
+      <c r="D987" s="2"/>
     </row>
     <row r="988" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A988" s="1" t="s">
+      <c r="A988" s="2" t="s">
         <v>2236</v>
       </c>
-      <c r="B988" s="1" t="s">
+      <c r="B988" s="2" t="s">
         <v>2237</v>
       </c>
-      <c r="C988" s="1" t="s">
-        <v>2238</v>
-      </c>
-      <c r="D988" s="1" t="s">
-        <v>2239</v>
-      </c>
+      <c r="C988" s="2"/>
+      <c r="D988" s="2"/>
     </row>
     <row r="989" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A989" t="s">
@@ -20542,39 +20538,35 @@
       </c>
     </row>
     <row r="1057" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1057" s="1" t="s">
+      <c r="A1057" s="2" t="s">
         <v>2457</v>
       </c>
-      <c r="B1057" s="1"/>
-      <c r="C1057" s="1"/>
+      <c r="B1057" s="2" t="s">
+        <v>2461</v>
+      </c>
     </row>
     <row r="1058" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1058" s="1" t="s">
+      <c r="A1058" s="2" t="s">
         <v>2458</v>
       </c>
-      <c r="B1058" s="1"/>
-      <c r="C1058" s="1"/>
+      <c r="B1058" s="2" t="s">
+        <v>2463</v>
+      </c>
     </row>
     <row r="1059" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1059" s="1" t="s">
+      <c r="A1059" s="2" t="s">
         <v>2459</v>
       </c>
-      <c r="B1059" s="1" t="s">
+      <c r="B1059" s="2" t="s">
         <v>2460</v>
       </c>
-      <c r="C1059" s="1" t="s">
-        <v>2461</v>
-      </c>
     </row>
     <row r="1060" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1060" s="1" t="s">
+      <c r="A1060" s="2" t="s">
         <v>2458</v>
       </c>
-      <c r="B1060" s="1" t="s">
+      <c r="B1060" s="2" t="s">
         <v>2462</v>
-      </c>
-      <c r="C1060" s="1" t="s">
-        <v>2463</v>
       </c>
     </row>
     <row r="1061" spans="1:4" x14ac:dyDescent="0.3">
@@ -20597,22 +20589,22 @@
       <c r="A1063" t="s">
         <v>2467</v>
       </c>
-      <c r="B1063" s="2" t="s">
+      <c r="B1063" t="s">
+        <v>2562</v>
+      </c>
+      <c r="C1063" t="s">
         <v>2563</v>
-      </c>
-      <c r="C1063" s="2" t="s">
-        <v>2564</v>
       </c>
     </row>
     <row r="1064" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1064" t="s">
         <v>2468</v>
       </c>
-      <c r="B1064" s="2" t="s">
+      <c r="B1064" t="s">
+        <v>2566</v>
+      </c>
+      <c r="C1064" t="s">
         <v>2567</v>
-      </c>
-      <c r="C1064" s="2" t="s">
-        <v>2568</v>
       </c>
     </row>
     <row r="1065" spans="1:4" x14ac:dyDescent="0.3">
@@ -20818,230 +20810,246 @@
       </c>
     </row>
     <row r="1085" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1085" s="1"/>
+      <c r="A1085" t="s">
+        <v>2519</v>
+      </c>
+      <c r="B1085" t="s">
+        <v>2520</v>
+      </c>
     </row>
     <row r="1086" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1086" s="1" t="s">
-        <v>2519</v>
+      <c r="A1086" t="s">
+        <v>2521</v>
+      </c>
+      <c r="B1086" t="s">
+        <v>2522</v>
       </c>
     </row>
     <row r="1087" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1087" t="s">
-        <v>2520</v>
+        <v>2523</v>
       </c>
       <c r="B1087" t="s">
-        <v>2521</v>
+        <v>2524</v>
       </c>
     </row>
     <row r="1088" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1088" t="s">
-        <v>2522</v>
+        <v>2526</v>
       </c>
       <c r="B1088" t="s">
-        <v>2523</v>
-      </c>
-    </row>
-    <row r="1089" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2527</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1089" t="s">
-        <v>2524</v>
+        <v>2529</v>
       </c>
       <c r="B1089" t="s">
         <v>2525</v>
       </c>
     </row>
-    <row r="1090" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1090" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1090" t="s">
-        <v>2527</v>
+        <v>2530</v>
       </c>
       <c r="B1090" t="s">
         <v>2528</v>
       </c>
     </row>
-    <row r="1091" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1091" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1091" t="s">
-        <v>2530</v>
+        <v>2531</v>
       </c>
       <c r="B1091" t="s">
-        <v>2526</v>
-      </c>
-    </row>
-    <row r="1092" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1092" t="s">
-        <v>2531</v>
+        <v>2533</v>
       </c>
       <c r="B1092" t="s">
-        <v>2529</v>
-      </c>
-    </row>
-    <row r="1093" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2534</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1093" t="s">
-        <v>2532</v>
+        <v>2535</v>
       </c>
       <c r="B1093" t="s">
-        <v>2533</v>
-      </c>
-    </row>
-    <row r="1094" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1094" t="s">
-        <v>2534</v>
-      </c>
-      <c r="B1094" t="s">
-        <v>2535</v>
-      </c>
-    </row>
-    <row r="1095" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1095" t="s">
         <v>2536</v>
       </c>
-      <c r="B1095" t="s">
+    </row>
+    <row r="1094" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1094" s="2" t="s">
         <v>2537</v>
       </c>
-    </row>
-    <row r="1096" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1096" t="s">
+      <c r="B1094" s="2" t="s">
         <v>2538</v>
       </c>
-      <c r="B1096" t="s">
+      <c r="C1094" s="2"/>
+      <c r="D1094" s="2"/>
+    </row>
+    <row r="1095" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1095" s="2" t="s">
         <v>2539</v>
       </c>
-    </row>
-    <row r="1097" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1097" s="1" t="s">
+      <c r="B1095" s="2" t="s">
         <v>2540</v>
       </c>
-      <c r="B1097" s="1" t="s">
+      <c r="C1095" s="2"/>
+      <c r="D1095" s="2"/>
+    </row>
+    <row r="1096" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1096" s="2" t="s">
         <v>2541</v>
       </c>
-      <c r="C1097" s="1"/>
-    </row>
-    <row r="1098" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1098" s="1" t="s">
+      <c r="B1096" s="2" t="s">
         <v>2542</v>
       </c>
-      <c r="B1098" s="1" t="s">
+      <c r="C1096" s="2"/>
+      <c r="D1096" s="2"/>
+    </row>
+    <row r="1097" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1097" s="2" t="s">
         <v>2543</v>
       </c>
-      <c r="C1098" s="1"/>
-    </row>
-    <row r="1099" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1099" s="1" t="s">
+      <c r="B1097" s="2" t="s">
         <v>2544</v>
       </c>
-      <c r="B1099" s="1" t="s">
+      <c r="C1097" s="2"/>
+      <c r="D1097" s="2"/>
+    </row>
+    <row r="1098" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1098" s="2" t="s">
         <v>2545</v>
       </c>
-      <c r="C1099" s="1"/>
-    </row>
-    <row r="1100" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1100" s="1" t="s">
+      <c r="B1098" s="2" t="s">
         <v>2546</v>
       </c>
-      <c r="B1100" s="1" t="s">
+      <c r="C1098" s="2"/>
+      <c r="D1098" s="2"/>
+    </row>
+    <row r="1099" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1099" s="2" t="s">
         <v>2547</v>
       </c>
-      <c r="C1100" s="1"/>
-    </row>
-    <row r="1101" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1101" s="1" t="s">
+      <c r="B1099" s="2" t="s">
         <v>2548</v>
       </c>
-      <c r="B1101" s="1" t="s">
+      <c r="C1099" s="2" t="s">
         <v>2549</v>
       </c>
-      <c r="C1101" s="1" t="s">
+      <c r="D1099" s="2"/>
+    </row>
+    <row r="1100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1100" s="2" t="s">
         <v>2550</v>
       </c>
-    </row>
-    <row r="1102" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1102" s="1" t="s">
+      <c r="B1100" s="2" t="s">
         <v>2551</v>
       </c>
-      <c r="B1102" s="1" t="s">
+      <c r="C1100" s="2" t="s">
         <v>2552</v>
       </c>
-      <c r="C1102" s="1" t="s">
+      <c r="D1100" s="2"/>
+    </row>
+    <row r="1101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1101" t="s">
         <v>2553</v>
       </c>
-    </row>
-    <row r="1103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B1101" t="s">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1102" t="s">
+        <v>2555</v>
+      </c>
+      <c r="B1102" t="s">
+        <v>2556</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1103" t="s">
-        <v>2554</v>
+        <v>2557</v>
       </c>
       <c r="B1103" t="s">
-        <v>2555</v>
-      </c>
-    </row>
-    <row r="1104" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2558</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1104" t="s">
-        <v>2556</v>
+        <v>2559</v>
       </c>
       <c r="B1104" t="s">
-        <v>2557</v>
+        <v>2560</v>
       </c>
     </row>
     <row r="1105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1105" t="s">
-        <v>2558</v>
+        <v>8</v>
       </c>
       <c r="B1105" t="s">
-        <v>2559</v>
+        <v>2561</v>
       </c>
     </row>
     <row r="1106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1106" t="s">
-        <v>2560</v>
+        <v>2564</v>
       </c>
       <c r="B1106" t="s">
-        <v>2561</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="1107" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1107" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1107" s="2" t="s">
-        <v>2562</v>
+      <c r="A1107" t="s">
+        <v>2568</v>
+      </c>
+      <c r="B1107" t="s">
+        <v>2569</v>
+      </c>
+      <c r="C1107" t="s">
+        <v>2570</v>
+      </c>
+      <c r="D1107" t="s">
+        <v>2571</v>
       </c>
     </row>
     <row r="1108" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1108" s="2" t="s">
-        <v>2565</v>
-      </c>
-      <c r="B1108" s="2" t="s">
-        <v>2566</v>
+      <c r="A1108" t="s">
+        <v>2572</v>
+      </c>
+      <c r="B1108" t="s">
+        <v>2573</v>
+      </c>
+      <c r="C1108" t="s">
+        <v>2574</v>
+      </c>
+      <c r="D1108" t="s">
+        <v>2575</v>
       </c>
     </row>
     <row r="1109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1109" t="s">
-        <v>2569</v>
+        <v>2576</v>
       </c>
       <c r="B1109" t="s">
-        <v>2570</v>
-      </c>
-      <c r="C1109" t="s">
-        <v>2571</v>
-      </c>
-      <c r="D1109" t="s">
-        <v>2572</v>
+        <v>2577</v>
       </c>
     </row>
     <row r="1110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1110" t="s">
-        <v>2573</v>
+        <v>2579</v>
       </c>
       <c r="B1110" t="s">
-        <v>2574</v>
-      </c>
-      <c r="C1110" t="s">
-        <v>2575</v>
-      </c>
-      <c r="D1110" t="s">
-        <v>2576</v>
+        <v>2580</v>
       </c>
     </row>
     <row r="1111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1111" t="s">
-        <v>2577</v>
+        <v>2582</v>
       </c>
       <c r="B1111" t="s">
         <v>2578</v>
@@ -21049,7 +21057,7 @@
     </row>
     <row r="1112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1112" t="s">
-        <v>2580</v>
+        <v>2584</v>
       </c>
       <c r="B1112" t="s">
         <v>2581</v>
@@ -21057,744 +21065,736 @@
     </row>
     <row r="1113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1113" t="s">
+        <v>2586</v>
+      </c>
+      <c r="B1113" t="s">
         <v>2583</v>
-      </c>
-      <c r="B1113" t="s">
-        <v>2579</v>
       </c>
     </row>
     <row r="1114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1114" t="s">
+        <v>2587</v>
+      </c>
+      <c r="B1114" t="s">
         <v>2585</v>
-      </c>
-      <c r="B1114" t="s">
-        <v>2582</v>
       </c>
     </row>
     <row r="1115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1115" t="s">
-        <v>2587</v>
+        <v>2588</v>
       </c>
       <c r="B1115" t="s">
-        <v>2584</v>
+        <v>2589</v>
       </c>
     </row>
     <row r="1116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1116" t="s">
-        <v>2588</v>
+        <v>2590</v>
       </c>
       <c r="B1116" t="s">
-        <v>2586</v>
+        <v>2591</v>
       </c>
     </row>
     <row r="1117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1117" t="s">
-        <v>2589</v>
+        <v>2592</v>
       </c>
       <c r="B1117" t="s">
-        <v>2590</v>
+        <v>2593</v>
+      </c>
+      <c r="C1117" t="s">
+        <v>2594</v>
       </c>
     </row>
     <row r="1118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1118" t="s">
-        <v>2591</v>
+        <v>2595</v>
       </c>
       <c r="B1118" t="s">
-        <v>2592</v>
+        <v>2596</v>
+      </c>
+      <c r="C1118" t="s">
+        <v>2597</v>
       </c>
     </row>
     <row r="1119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1119" t="s">
-        <v>2593</v>
+        <v>2598</v>
       </c>
       <c r="B1119" t="s">
-        <v>2594</v>
-      </c>
-      <c r="C1119" t="s">
-        <v>2595</v>
+        <v>2599</v>
       </c>
     </row>
     <row r="1120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1120" t="s">
-        <v>2596</v>
+        <v>2600</v>
       </c>
       <c r="B1120" t="s">
-        <v>2597</v>
-      </c>
-      <c r="C1120" t="s">
-        <v>2598</v>
+        <v>2601</v>
       </c>
     </row>
     <row r="1121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1121" t="s">
-        <v>2599</v>
+        <v>8</v>
       </c>
       <c r="B1121" t="s">
-        <v>2600</v>
+        <v>2602</v>
       </c>
     </row>
     <row r="1122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1122" t="s">
-        <v>2601</v>
+        <v>2603</v>
       </c>
       <c r="B1122" t="s">
-        <v>2602</v>
+        <v>2604</v>
       </c>
     </row>
     <row r="1123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1123" t="s">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="B1123" t="s">
-        <v>2603</v>
+        <v>2605</v>
+      </c>
+      <c r="C1123" t="s">
+        <v>2606</v>
       </c>
     </row>
     <row r="1124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1124" t="s">
-        <v>2604</v>
+        <v>2608</v>
       </c>
       <c r="B1124" t="s">
-        <v>2605</v>
+        <v>2609</v>
+      </c>
+      <c r="C1124" t="s">
+        <v>2610</v>
       </c>
     </row>
     <row r="1125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1125" t="s">
-        <v>75</v>
+        <v>208</v>
       </c>
       <c r="B1125" t="s">
-        <v>2606</v>
-      </c>
-      <c r="C1125" t="s">
         <v>2607</v>
       </c>
     </row>
     <row r="1126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1126" t="s">
-        <v>2609</v>
+        <v>2612</v>
       </c>
       <c r="B1126" t="s">
-        <v>2610</v>
-      </c>
-      <c r="C1126" t="s">
         <v>2611</v>
       </c>
     </row>
     <row r="1127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1127" t="s">
-        <v>208</v>
+        <v>90</v>
       </c>
       <c r="B1127" t="s">
-        <v>2608</v>
+        <v>2613</v>
+      </c>
+      <c r="C1127" t="s">
+        <v>2614</v>
       </c>
     </row>
     <row r="1128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1128" t="s">
-        <v>2613</v>
+        <v>2615</v>
       </c>
       <c r="B1128" t="s">
-        <v>2612</v>
+        <v>2616</v>
+      </c>
+      <c r="C1128" t="s">
+        <v>2617</v>
       </c>
     </row>
     <row r="1129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1129" t="s">
-        <v>90</v>
+        <v>2618</v>
       </c>
       <c r="B1129" t="s">
-        <v>2614</v>
+        <v>2619</v>
       </c>
       <c r="C1129" t="s">
-        <v>2615</v>
+        <v>2620</v>
       </c>
     </row>
     <row r="1130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1130" t="s">
-        <v>2616</v>
+        <v>2621</v>
       </c>
       <c r="B1130" t="s">
-        <v>2617</v>
+        <v>2622</v>
       </c>
       <c r="C1130" t="s">
-        <v>2618</v>
+        <v>2623</v>
       </c>
     </row>
     <row r="1131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1131" t="s">
-        <v>2619</v>
+        <v>2624</v>
       </c>
       <c r="B1131" t="s">
-        <v>2620</v>
+        <v>2625</v>
       </c>
       <c r="C1131" t="s">
-        <v>2621</v>
+        <v>2626</v>
       </c>
     </row>
     <row r="1132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1132" t="s">
-        <v>2622</v>
+        <v>2627</v>
       </c>
       <c r="B1132" t="s">
-        <v>2623</v>
+        <v>2628</v>
       </c>
       <c r="C1132" t="s">
-        <v>2624</v>
+        <v>2629</v>
       </c>
     </row>
     <row r="1133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1133" t="s">
-        <v>2625</v>
+        <v>8</v>
       </c>
       <c r="B1133" t="s">
-        <v>2626</v>
-      </c>
-      <c r="C1133" t="s">
-        <v>2627</v>
+        <v>2630</v>
       </c>
     </row>
     <row r="1134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1134" t="s">
-        <v>2628</v>
+        <v>2631</v>
       </c>
       <c r="B1134" t="s">
-        <v>2629</v>
-      </c>
-      <c r="C1134" t="s">
-        <v>2630</v>
+        <v>2632</v>
       </c>
     </row>
     <row r="1135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1135" t="s">
-        <v>8</v>
+        <v>2633</v>
       </c>
       <c r="B1135" t="s">
-        <v>2631</v>
+        <v>2634</v>
+      </c>
+      <c r="C1135" t="s">
+        <v>2635</v>
       </c>
     </row>
     <row r="1136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1136" t="s">
-        <v>2632</v>
+        <v>2636</v>
       </c>
       <c r="B1136" t="s">
-        <v>2633</v>
-      </c>
-    </row>
-    <row r="1137" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2637</v>
+      </c>
+      <c r="C1136" t="s">
+        <v>2638</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1137" t="s">
-        <v>2634</v>
+        <v>2639</v>
       </c>
       <c r="B1137" t="s">
-        <v>2635</v>
-      </c>
-      <c r="C1137" t="s">
-        <v>2636</v>
-      </c>
-    </row>
-    <row r="1138" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1138" t="s">
-        <v>2637</v>
+        <v>2641</v>
       </c>
       <c r="B1138" t="s">
-        <v>2638</v>
-      </c>
-      <c r="C1138" t="s">
-        <v>2639</v>
-      </c>
-    </row>
-    <row r="1139" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2642</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1139" t="s">
-        <v>2640</v>
+        <v>2643</v>
       </c>
       <c r="B1139" t="s">
-        <v>2641</v>
-      </c>
-    </row>
-    <row r="1140" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2644</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1140" t="s">
-        <v>2642</v>
+        <v>2646</v>
       </c>
       <c r="B1140" t="s">
-        <v>2643</v>
-      </c>
-    </row>
-    <row r="1141" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2647</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1141" t="s">
-        <v>2644</v>
+        <v>2649</v>
       </c>
       <c r="B1141" t="s">
         <v>2645</v>
       </c>
     </row>
-    <row r="1142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1142" t="s">
-        <v>2647</v>
+        <v>2650</v>
       </c>
       <c r="B1142" t="s">
         <v>2648</v>
       </c>
     </row>
-    <row r="1143" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1143" t="s">
-        <v>2650</v>
+        <v>2651</v>
       </c>
       <c r="B1143" t="s">
-        <v>2646</v>
-      </c>
-    </row>
-    <row r="1144" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2652</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1144" t="s">
-        <v>2651</v>
+        <v>2654</v>
       </c>
       <c r="B1144" t="s">
-        <v>2649</v>
-      </c>
-    </row>
-    <row r="1145" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2655</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1145" t="s">
-        <v>2652</v>
+        <v>2657</v>
       </c>
       <c r="B1145" t="s">
         <v>2653</v>
       </c>
     </row>
-    <row r="1146" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1146" t="s">
-        <v>2655</v>
+        <v>2658</v>
       </c>
       <c r="B1146" t="s">
         <v>2656</v>
       </c>
     </row>
-    <row r="1147" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1147" t="s">
-        <v>2658</v>
+        <v>8</v>
       </c>
       <c r="B1147" t="s">
-        <v>2654</v>
-      </c>
-    </row>
-    <row r="1148" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2659</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1148" t="s">
-        <v>2659</v>
+        <v>2660</v>
       </c>
       <c r="B1148" t="s">
-        <v>2657</v>
-      </c>
-    </row>
-    <row r="1149" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2661</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1149" t="s">
         <v>8</v>
       </c>
       <c r="B1149" t="s">
-        <v>2660</v>
-      </c>
-    </row>
-    <row r="1150" spans="1:3" x14ac:dyDescent="0.3">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1150" t="s">
-        <v>2661</v>
+        <v>2662</v>
       </c>
       <c r="B1150" t="s">
-        <v>2662</v>
-      </c>
-    </row>
-    <row r="1151" spans="1:3" x14ac:dyDescent="0.3">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1151" t="s">
         <v>8</v>
       </c>
-      <c r="B1151" s="2" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="1152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B1151" t="s">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1152" t="s">
-        <v>2663</v>
-      </c>
-      <c r="B1152" s="2" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="1153" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2666</v>
+      </c>
+      <c r="B1152" t="s">
+        <v>2667</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1153" t="s">
-        <v>8</v>
+        <v>2670</v>
       </c>
       <c r="B1153" t="s">
         <v>2664</v>
       </c>
-    </row>
-    <row r="1154" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C1153" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1154" t="s">
-        <v>2667</v>
+        <v>2671</v>
       </c>
       <c r="B1154" t="s">
         <v>2668</v>
       </c>
-    </row>
-    <row r="1155" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C1154" t="s">
+        <v>2669</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1155" t="s">
-        <v>2671</v>
+        <v>8</v>
       </c>
       <c r="B1155" t="s">
-        <v>2665</v>
-      </c>
-      <c r="C1155" t="s">
-        <v>2666</v>
-      </c>
-    </row>
-    <row r="1156" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2672</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1156" t="s">
-        <v>2672</v>
+        <v>2673</v>
       </c>
       <c r="B1156" t="s">
-        <v>2669</v>
-      </c>
-      <c r="C1156" t="s">
-        <v>2670</v>
-      </c>
-    </row>
-    <row r="1157" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2674</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1157" t="s">
+        <v>2675</v>
+      </c>
+      <c r="B1157" t="s">
+        <v>2676</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1158" t="s">
+        <v>2677</v>
+      </c>
+      <c r="B1158" t="s">
+        <v>2678</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1159" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B1159" s="2" t="s">
+        <v>2708</v>
+      </c>
+      <c r="C1159" s="2" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1160" t="s">
+        <v>2679</v>
+      </c>
+      <c r="B1160" s="2" t="s">
+        <v>2713</v>
+      </c>
+      <c r="C1160" s="2" t="s">
+        <v>2714</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1161" t="s">
         <v>8</v>
       </c>
-      <c r="B1157" t="s">
-        <v>2673</v>
-      </c>
-    </row>
-    <row r="1158" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1158" t="s">
-        <v>2674</v>
-      </c>
-      <c r="B1158" t="s">
-        <v>2675</v>
-      </c>
-    </row>
-    <row r="1159" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1159" t="s">
-        <v>2676</v>
-      </c>
-      <c r="B1159" t="s">
-        <v>2677</v>
-      </c>
-    </row>
-    <row r="1160" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1160" t="s">
-        <v>2678</v>
-      </c>
-      <c r="B1160" t="s">
-        <v>2679</v>
-      </c>
-    </row>
-    <row r="1161" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1161" t="s">
+      <c r="B1161" t="s">
+        <v>2680</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1162" t="s">
+        <v>2681</v>
+      </c>
+      <c r="B1162" t="s">
+        <v>2682</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1163" t="s">
+        <v>2683</v>
+      </c>
+      <c r="B1163" t="s">
+        <v>2684</v>
+      </c>
+      <c r="C1163" t="s">
+        <v>2685</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1164" s="2" t="s">
+        <v>2689</v>
+      </c>
+      <c r="B1164" s="2" t="s">
+        <v>2690</v>
+      </c>
+      <c r="C1164" s="2" t="s">
+        <v>2691</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1165" s="2" t="s">
+        <v>2695</v>
+      </c>
+      <c r="B1165" s="2" t="s">
+        <v>2701</v>
+      </c>
+      <c r="C1165" s="2" t="s">
+        <v>2702</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1166" s="2" t="s">
+        <v>2696</v>
+      </c>
+      <c r="B1166" s="2" t="s">
+        <v>2704</v>
+      </c>
+      <c r="C1166" s="2" t="s">
+        <v>2705</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1167" s="2" t="s">
+        <v>2697</v>
+      </c>
+      <c r="B1167" s="2" t="s">
+        <v>2687</v>
+      </c>
+      <c r="C1167" s="2"/>
+    </row>
+    <row r="1168" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1168" s="2" t="s">
+        <v>2698</v>
+      </c>
+      <c r="B1168" s="2" t="s">
+        <v>2693</v>
+      </c>
+      <c r="C1168" s="2"/>
+    </row>
+    <row r="1169" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1169" s="2" t="s">
+        <v>2699</v>
+      </c>
+      <c r="B1169" s="2" t="s">
+        <v>2688</v>
+      </c>
+      <c r="C1169" s="2"/>
+    </row>
+    <row r="1170" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1170" s="2" t="s">
+        <v>2698</v>
+      </c>
+      <c r="B1170" s="2" t="s">
+        <v>2694</v>
+      </c>
+      <c r="C1170" s="2"/>
+    </row>
+    <row r="1171" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1171" s="2" t="s">
+        <v>2700</v>
+      </c>
+      <c r="B1171" s="2" t="s">
+        <v>2686</v>
+      </c>
+      <c r="C1171" s="2"/>
+    </row>
+    <row r="1172" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1172" s="2" t="s">
+        <v>2703</v>
+      </c>
+      <c r="B1172" s="2" t="s">
+        <v>2692</v>
+      </c>
+      <c r="C1172" s="2"/>
+    </row>
+    <row r="1173" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1173" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1173" s="2" t="s">
+        <v>2707</v>
+      </c>
+      <c r="C1173" s="2"/>
+    </row>
+    <row r="1174" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1174" s="2" t="s">
+        <v>2706</v>
+      </c>
+      <c r="B1174" s="2" t="s">
+        <v>2712</v>
+      </c>
+      <c r="C1174" s="2"/>
+      <c r="F1174" s="1"/>
+    </row>
+    <row r="1175" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1175" s="2" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="1162" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1162" t="s">
-        <v>2680</v>
-      </c>
-    </row>
-    <row r="1163" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1163" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1163" t="s">
-        <v>2681</v>
-      </c>
-    </row>
-    <row r="1164" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1164" t="s">
-        <v>2682</v>
-      </c>
-      <c r="B1164" t="s">
-        <v>2683</v>
-      </c>
-    </row>
-    <row r="1165" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1165" t="s">
-        <v>2684</v>
-      </c>
-      <c r="B1165" t="s">
-        <v>2685</v>
-      </c>
-      <c r="C1165" t="s">
-        <v>2686</v>
-      </c>
-      <c r="D1165" s="1" t="s">
-        <v>2687</v>
-      </c>
-      <c r="E1165" s="1" t="s">
-        <v>2688</v>
-      </c>
-      <c r="F1165" s="1" t="s">
-        <v>2689</v>
-      </c>
-    </row>
-    <row r="1166" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1166" t="s">
-        <v>2690</v>
-      </c>
-      <c r="B1166" t="s">
-        <v>2691</v>
-      </c>
-      <c r="C1166" t="s">
-        <v>2692</v>
-      </c>
-      <c r="D1166" s="1" t="s">
-        <v>2693</v>
-      </c>
-      <c r="E1166" s="1" t="s">
-        <v>2694</v>
-      </c>
-      <c r="F1166" s="1" t="s">
-        <v>2695</v>
-      </c>
-    </row>
-    <row r="1167" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1167" s="1" t="s">
-        <v>2696</v>
-      </c>
-      <c r="B1167" s="1"/>
-      <c r="C1167" s="1"/>
-    </row>
-    <row r="1168" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1168" s="1" t="s">
-        <v>2697</v>
-      </c>
-      <c r="B1168" s="1"/>
-      <c r="C1168" s="1"/>
-    </row>
-    <row r="1169" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1169" s="1" t="s">
-        <v>2698</v>
-      </c>
-      <c r="B1169" s="1"/>
-      <c r="C1169" s="1"/>
-    </row>
-    <row r="1170" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1170" s="1" t="s">
-        <v>2699</v>
-      </c>
-      <c r="B1170" s="1"/>
-      <c r="C1170" s="1"/>
-    </row>
-    <row r="1171" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1171" s="1" t="s">
-        <v>2700</v>
-      </c>
-      <c r="B1171" s="1"/>
-      <c r="C1171" s="1"/>
-    </row>
-    <row r="1172" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1172" s="1" t="s">
-        <v>2699</v>
-      </c>
-      <c r="B1172" s="1"/>
-      <c r="C1172" s="1"/>
-    </row>
-    <row r="1173" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1173" s="1" t="s">
-        <v>2701</v>
-      </c>
-      <c r="B1173" s="1" t="s">
-        <v>2702</v>
-      </c>
-      <c r="C1173" s="1" t="s">
-        <v>2703</v>
-      </c>
-    </row>
-    <row r="1174" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1174" s="1" t="s">
-        <v>2704</v>
-      </c>
-      <c r="B1174" s="1" t="s">
-        <v>2705</v>
-      </c>
-      <c r="C1174" s="1" t="s">
+      <c r="B1175" s="2" t="s">
+        <v>2710</v>
+      </c>
+      <c r="C1175" s="2" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1176" s="2" t="s">
         <v>2706</v>
       </c>
-    </row>
-    <row r="1175" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1175" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="1176" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1176" s="1" t="s">
-        <v>2707</v>
-      </c>
-      <c r="B1176" s="1"/>
-      <c r="C1176" s="1"/>
-      <c r="D1176" s="1"/>
-      <c r="E1176" s="1"/>
-      <c r="F1176" s="1"/>
+      <c r="B1176" s="2" t="s">
+        <v>2715</v>
+      </c>
+      <c r="C1176" s="2" t="s">
+        <v>2716</v>
+      </c>
     </row>
     <row r="1177" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1177" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="B1177" s="1" t="s">
-        <v>2708</v>
-      </c>
-      <c r="C1177" s="1" t="s">
-        <v>2709</v>
-      </c>
-      <c r="D1177" s="1" t="s">
-        <v>2710</v>
-      </c>
-      <c r="E1177" s="1" t="s">
-        <v>2711</v>
-      </c>
-      <c r="F1177" s="1" t="s">
-        <v>2712</v>
+      <c r="A1177" t="s">
+        <v>2717</v>
+      </c>
+      <c r="B1177" t="s">
+        <v>2718</v>
+      </c>
+      <c r="C1177" t="s">
+        <v>2719</v>
       </c>
     </row>
     <row r="1178" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1178" s="1" t="s">
-        <v>2707</v>
-      </c>
-      <c r="B1178" s="1" t="s">
-        <v>2713</v>
-      </c>
-      <c r="C1178" s="1" t="s">
-        <v>2714</v>
-      </c>
-      <c r="D1178" s="1" t="s">
-        <v>2715</v>
-      </c>
-      <c r="E1178" s="1" t="s">
-        <v>2716</v>
-      </c>
-      <c r="F1178" s="1" t="s">
-        <v>2717</v>
+      <c r="A1178" t="s">
+        <v>2720</v>
+      </c>
+      <c r="B1178" t="s">
+        <v>2721</v>
+      </c>
+      <c r="C1178" t="s">
+        <v>2722</v>
       </c>
     </row>
     <row r="1179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1179" t="s">
-        <v>2718</v>
+        <v>2723</v>
       </c>
       <c r="B1179" t="s">
-        <v>2719</v>
+        <v>2724</v>
       </c>
       <c r="C1179" t="s">
-        <v>2720</v>
+        <v>2725</v>
+      </c>
+      <c r="D1179" t="s">
+        <v>2726</v>
       </c>
     </row>
     <row r="1180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1180" t="s">
-        <v>2721</v>
+        <v>2727</v>
       </c>
       <c r="B1180" t="s">
-        <v>2722</v>
+        <v>2728</v>
       </c>
       <c r="C1180" t="s">
-        <v>2723</v>
+        <v>2729</v>
+      </c>
+      <c r="D1180" t="s">
+        <v>2730</v>
       </c>
     </row>
     <row r="1181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1181" t="s">
-        <v>2724</v>
+        <v>2731</v>
       </c>
       <c r="B1181" t="s">
-        <v>2725</v>
+        <v>2732</v>
       </c>
       <c r="C1181" t="s">
-        <v>2726</v>
-      </c>
-      <c r="D1181" t="s">
-        <v>2727</v>
+        <v>2733</v>
       </c>
     </row>
     <row r="1182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1182" t="s">
-        <v>2728</v>
+        <v>2734</v>
       </c>
       <c r="B1182" t="s">
-        <v>2729</v>
+        <v>2735</v>
       </c>
       <c r="C1182" t="s">
-        <v>2730</v>
-      </c>
-      <c r="D1182" t="s">
-        <v>2731</v>
+        <v>2736</v>
       </c>
     </row>
     <row r="1183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1183" t="s">
-        <v>2732</v>
+        <v>2737</v>
       </c>
       <c r="B1183" t="s">
-        <v>2733</v>
+        <v>2738</v>
       </c>
       <c r="C1183" t="s">
-        <v>2734</v>
+        <v>2739</v>
       </c>
     </row>
     <row r="1184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1184" t="s">
-        <v>2735</v>
+        <v>2740</v>
       </c>
       <c r="B1184" t="s">
-        <v>2736</v>
+        <v>2741</v>
       </c>
       <c r="C1184" t="s">
-        <v>2737</v>
+        <v>2742</v>
       </c>
     </row>
     <row r="1185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1185" t="s">
-        <v>2738</v>
+        <v>2743</v>
       </c>
       <c r="B1185" t="s">
-        <v>2739</v>
-      </c>
-      <c r="C1185" t="s">
-        <v>2740</v>
+        <v>2744</v>
       </c>
     </row>
     <row r="1186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1186" t="s">
-        <v>2741</v>
+        <v>2745</v>
       </c>
       <c r="B1186" t="s">
-        <v>2742</v>
-      </c>
-      <c r="C1186" t="s">
-        <v>2743</v>
+        <v>2746</v>
       </c>
     </row>
     <row r="1187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1187" t="s">
-        <v>2744</v>
+        <v>2747</v>
       </c>
       <c r="B1187" t="s">
-        <v>2745</v>
+        <v>2748</v>
       </c>
     </row>
     <row r="1188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1188" t="s">
-        <v>2746</v>
+        <v>2749</v>
       </c>
       <c r="B1188" t="s">
-        <v>2747</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="1189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1189" t="s">
-        <v>2748</v>
+        <v>90</v>
       </c>
       <c r="B1189" t="s">
-        <v>2749</v>
+        <v>2751</v>
       </c>
     </row>
     <row r="1190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1190" t="s">
-        <v>2750</v>
+        <v>2753</v>
       </c>
       <c r="B1190" t="s">
-        <v>2751</v>
+        <v>2754</v>
       </c>
     </row>
     <row r="1191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1191" t="s">
-        <v>90</v>
+        <v>208</v>
       </c>
       <c r="B1191" t="s">
         <v>2752</v>
@@ -21802,7 +21802,7 @@
     </row>
     <row r="1192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1192" t="s">
-        <v>2754</v>
+        <v>2756</v>
       </c>
       <c r="B1192" t="s">
         <v>2755</v>
@@ -21810,587 +21810,587 @@
     </row>
     <row r="1193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1193" t="s">
-        <v>208</v>
+        <v>2757</v>
       </c>
       <c r="B1193" t="s">
-        <v>2753</v>
+        <v>2758</v>
       </c>
     </row>
     <row r="1194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1194" t="s">
-        <v>2757</v>
+        <v>2759</v>
       </c>
       <c r="B1194" t="s">
-        <v>2756</v>
+        <v>2760</v>
       </c>
     </row>
     <row r="1195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1195" t="s">
-        <v>2758</v>
+        <v>2761</v>
       </c>
       <c r="B1195" t="s">
-        <v>2759</v>
+        <v>2765</v>
+      </c>
+      <c r="C1195" t="s">
+        <v>2766</v>
+      </c>
+      <c r="D1195" t="s">
+        <v>2767</v>
+      </c>
+      <c r="E1195" t="s">
+        <v>2768</v>
+      </c>
+      <c r="F1195" t="s">
+        <v>2769</v>
+      </c>
+      <c r="G1195" t="s">
+        <v>2770</v>
       </c>
     </row>
     <row r="1196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1196" t="s">
-        <v>2760</v>
+        <v>2762</v>
       </c>
       <c r="B1196" t="s">
-        <v>2761</v>
+        <v>2775</v>
+      </c>
+      <c r="C1196" t="s">
+        <v>2776</v>
+      </c>
+      <c r="D1196" t="s">
+        <v>2777</v>
+      </c>
+      <c r="E1196" t="s">
+        <v>2778</v>
+      </c>
+      <c r="F1196" t="s">
+        <v>2779</v>
+      </c>
+      <c r="G1196" t="s">
+        <v>2780</v>
       </c>
     </row>
     <row r="1197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1197" t="s">
-        <v>2762</v>
+        <v>2763</v>
       </c>
       <c r="B1197" t="s">
-        <v>2766</v>
-      </c>
-      <c r="C1197" t="s">
-        <v>2767</v>
-      </c>
-      <c r="D1197" t="s">
-        <v>2768</v>
-      </c>
-      <c r="E1197" t="s">
-        <v>2769</v>
-      </c>
-      <c r="F1197" t="s">
-        <v>2770</v>
-      </c>
-      <c r="G1197" t="s">
-        <v>2771</v>
+        <v>2764</v>
       </c>
     </row>
     <row r="1198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1198" t="s">
-        <v>2763</v>
+        <v>2773</v>
       </c>
       <c r="B1198" t="s">
-        <v>2776</v>
-      </c>
-      <c r="C1198" t="s">
-        <v>2777</v>
-      </c>
-      <c r="D1198" t="s">
-        <v>2778</v>
-      </c>
-      <c r="E1198" t="s">
-        <v>2779</v>
-      </c>
-      <c r="F1198" t="s">
-        <v>2780</v>
-      </c>
-      <c r="G1198" t="s">
-        <v>2781</v>
+        <v>2774</v>
       </c>
     </row>
     <row r="1199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1199" t="s">
-        <v>2764</v>
+        <v>47</v>
       </c>
       <c r="B1199" t="s">
-        <v>2765</v>
+        <v>2771</v>
+      </c>
+      <c r="C1199" t="s">
+        <v>2772</v>
       </c>
     </row>
     <row r="1200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1200" t="s">
-        <v>2774</v>
+        <v>2783</v>
       </c>
       <c r="B1200" t="s">
-        <v>2775</v>
+        <v>2781</v>
+      </c>
+      <c r="C1200" t="s">
+        <v>2782</v>
       </c>
     </row>
     <row r="1201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1201" t="s">
-        <v>47</v>
+        <v>2784</v>
       </c>
       <c r="B1201" t="s">
-        <v>2772</v>
-      </c>
-      <c r="C1201" t="s">
-        <v>2773</v>
+        <v>2785</v>
       </c>
     </row>
     <row r="1202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1202" t="s">
-        <v>2784</v>
+        <v>2786</v>
       </c>
       <c r="B1202" t="s">
-        <v>2782</v>
-      </c>
-      <c r="C1202" t="s">
-        <v>2783</v>
+        <v>2787</v>
       </c>
     </row>
     <row r="1203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1203" t="s">
-        <v>2785</v>
+        <v>2788</v>
       </c>
       <c r="B1203" t="s">
-        <v>2786</v>
+        <v>2789</v>
+      </c>
+      <c r="C1203" t="s">
+        <v>2790</v>
       </c>
     </row>
     <row r="1204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1204" t="s">
-        <v>2787</v>
+        <v>2792</v>
       </c>
       <c r="B1204" t="s">
-        <v>2788</v>
+        <v>2793</v>
+      </c>
+      <c r="C1204" t="s">
+        <v>2794</v>
       </c>
     </row>
     <row r="1205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1205" t="s">
-        <v>2789</v>
+        <v>2796</v>
       </c>
       <c r="B1205" t="s">
-        <v>2790</v>
-      </c>
-      <c r="C1205" t="s">
-        <v>2791</v>
+        <v>2797</v>
       </c>
     </row>
     <row r="1206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1206" t="s">
-        <v>2793</v>
+        <v>2798</v>
       </c>
       <c r="B1206" t="s">
-        <v>2794</v>
-      </c>
-      <c r="C1206" t="s">
-        <v>2795</v>
+        <v>2799</v>
       </c>
     </row>
     <row r="1207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1207" t="s">
-        <v>2797</v>
+        <v>2800</v>
       </c>
       <c r="B1207" t="s">
-        <v>2798</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="1208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1208" t="s">
-        <v>2799</v>
+        <v>2801</v>
       </c>
       <c r="B1208" t="s">
-        <v>2800</v>
+        <v>2795</v>
       </c>
     </row>
     <row r="1209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1209" t="s">
-        <v>2801</v>
+        <v>2802</v>
       </c>
       <c r="B1209" t="s">
-        <v>2792</v>
+        <v>2805</v>
+      </c>
+      <c r="C1209" t="s">
+        <v>2806</v>
+      </c>
+      <c r="D1209" t="s">
+        <v>2807</v>
+      </c>
+      <c r="E1209" t="s">
+        <v>2808</v>
       </c>
     </row>
     <row r="1210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1210" t="s">
-        <v>2802</v>
+        <v>2803</v>
       </c>
       <c r="B1210" t="s">
-        <v>2796</v>
+        <v>2817</v>
+      </c>
+      <c r="C1210" t="s">
+        <v>2818</v>
+      </c>
+      <c r="D1210" t="s">
+        <v>2819</v>
+      </c>
+      <c r="E1210" t="s">
+        <v>2820</v>
       </c>
     </row>
     <row r="1211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1211" t="s">
-        <v>2803</v>
+        <v>2804</v>
       </c>
       <c r="B1211" t="s">
-        <v>2806</v>
+        <v>2809</v>
       </c>
       <c r="C1211" t="s">
-        <v>2807</v>
+        <v>2810</v>
       </c>
       <c r="D1211" t="s">
-        <v>2808</v>
+        <v>2811</v>
       </c>
       <c r="E1211" t="s">
-        <v>2809</v>
+        <v>2812</v>
+      </c>
+      <c r="F1211" t="s">
+        <v>2813</v>
+      </c>
+      <c r="G1211" t="s">
+        <v>2814</v>
+      </c>
+      <c r="H1211" t="s">
+        <v>2815</v>
       </c>
     </row>
     <row r="1212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1212" t="s">
-        <v>2804</v>
+        <v>2816</v>
       </c>
       <c r="B1212" t="s">
-        <v>2818</v>
+        <v>2821</v>
       </c>
       <c r="C1212" t="s">
-        <v>2819</v>
+        <v>2822</v>
       </c>
       <c r="D1212" t="s">
-        <v>2820</v>
+        <v>2823</v>
       </c>
       <c r="E1212" t="s">
-        <v>2821</v>
+        <v>2824</v>
+      </c>
+      <c r="F1212" t="s">
+        <v>2825</v>
+      </c>
+      <c r="G1212" t="s">
+        <v>2826</v>
+      </c>
+      <c r="H1212" t="s">
+        <v>2827</v>
       </c>
     </row>
     <row r="1213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1213" t="s">
-        <v>2805</v>
+        <v>2828</v>
       </c>
       <c r="B1213" t="s">
-        <v>2810</v>
+        <v>2829</v>
       </c>
       <c r="C1213" t="s">
-        <v>2811</v>
+        <v>2830</v>
       </c>
       <c r="D1213" t="s">
-        <v>2812</v>
-      </c>
-      <c r="E1213" t="s">
-        <v>2813</v>
-      </c>
-      <c r="F1213" t="s">
-        <v>2814</v>
-      </c>
-      <c r="G1213" t="s">
-        <v>2815</v>
-      </c>
-      <c r="H1213" t="s">
-        <v>2816</v>
+        <v>2831</v>
       </c>
     </row>
     <row r="1214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1214" t="s">
-        <v>2817</v>
+        <v>2832</v>
       </c>
       <c r="B1214" t="s">
-        <v>2822</v>
+        <v>2833</v>
       </c>
       <c r="C1214" t="s">
-        <v>2823</v>
+        <v>2834</v>
       </c>
       <c r="D1214" t="s">
-        <v>2824</v>
-      </c>
-      <c r="E1214" t="s">
-        <v>2825</v>
-      </c>
-      <c r="F1214" t="s">
-        <v>2826</v>
-      </c>
-      <c r="G1214" t="s">
-        <v>2827</v>
-      </c>
-      <c r="H1214" t="s">
-        <v>2828</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="1215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1215" t="s">
-        <v>2829</v>
+        <v>2836</v>
       </c>
       <c r="B1215" t="s">
-        <v>2830</v>
-      </c>
-      <c r="C1215" t="s">
-        <v>2831</v>
-      </c>
-      <c r="D1215" t="s">
-        <v>2832</v>
+        <v>2837</v>
       </c>
     </row>
     <row r="1216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1216" t="s">
-        <v>2833</v>
+        <v>2838</v>
       </c>
       <c r="B1216" t="s">
-        <v>2834</v>
-      </c>
-      <c r="C1216" t="s">
-        <v>2835</v>
-      </c>
-      <c r="D1216" t="s">
-        <v>2836</v>
+        <v>2839</v>
       </c>
     </row>
     <row r="1217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1217" t="s">
-        <v>2837</v>
+        <v>8</v>
       </c>
       <c r="B1217" t="s">
-        <v>2838</v>
+        <v>2840</v>
+      </c>
+      <c r="C1217" t="s">
+        <v>2841</v>
+      </c>
+      <c r="D1217" t="s">
+        <v>2842</v>
       </c>
     </row>
     <row r="1218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1218" t="s">
-        <v>2839</v>
+        <v>2843</v>
       </c>
       <c r="B1218" t="s">
-        <v>2840</v>
+        <v>2844</v>
+      </c>
+      <c r="C1218" t="s">
+        <v>2845</v>
+      </c>
+      <c r="D1218" t="s">
+        <v>2846</v>
       </c>
     </row>
     <row r="1219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1219" t="s">
-        <v>8</v>
+        <v>208</v>
       </c>
       <c r="B1219" t="s">
-        <v>2841</v>
-      </c>
-      <c r="C1219" t="s">
-        <v>2842</v>
-      </c>
-      <c r="D1219" t="s">
-        <v>2843</v>
+        <v>2847</v>
       </c>
     </row>
     <row r="1220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1220" t="s">
-        <v>2844</v>
+        <v>2848</v>
       </c>
       <c r="B1220" t="s">
-        <v>2845</v>
-      </c>
-      <c r="C1220" t="s">
-        <v>2846</v>
-      </c>
-      <c r="D1220" t="s">
-        <v>2847</v>
+        <v>2849</v>
       </c>
     </row>
     <row r="1221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1221" t="s">
-        <v>208</v>
+        <v>2850</v>
       </c>
       <c r="B1221" t="s">
-        <v>2848</v>
+        <v>2851</v>
       </c>
     </row>
     <row r="1222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1222" t="s">
-        <v>2849</v>
+        <v>2852</v>
       </c>
       <c r="B1222" t="s">
-        <v>2850</v>
+        <v>2853</v>
       </c>
     </row>
     <row r="1223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1223" t="s">
-        <v>2851</v>
+        <v>8</v>
       </c>
       <c r="B1223" t="s">
-        <v>2852</v>
+        <v>2854</v>
       </c>
     </row>
     <row r="1224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1224" t="s">
-        <v>2853</v>
+        <v>2855</v>
       </c>
       <c r="B1224" t="s">
-        <v>2854</v>
+        <v>2856</v>
       </c>
     </row>
     <row r="1225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1225" t="s">
-        <v>8</v>
+        <v>2857</v>
       </c>
       <c r="B1225" t="s">
-        <v>2855</v>
+        <v>2858</v>
       </c>
     </row>
     <row r="1226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1226" t="s">
-        <v>2856</v>
+        <v>2859</v>
       </c>
       <c r="B1226" t="s">
-        <v>2857</v>
+        <v>2860</v>
       </c>
     </row>
     <row r="1227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1227" t="s">
-        <v>2858</v>
+        <v>2861</v>
       </c>
       <c r="B1227" t="s">
-        <v>2859</v>
+        <v>2862</v>
       </c>
     </row>
     <row r="1228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1228" t="s">
-        <v>2860</v>
+        <v>2863</v>
       </c>
       <c r="B1228" t="s">
-        <v>2861</v>
+        <v>2864</v>
       </c>
     </row>
     <row r="1229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1229" t="s">
-        <v>2862</v>
+        <v>2865</v>
       </c>
       <c r="B1229" t="s">
-        <v>2863</v>
+        <v>2866</v>
       </c>
     </row>
     <row r="1230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1230" t="s">
-        <v>2864</v>
+        <v>2867</v>
       </c>
       <c r="B1230" t="s">
-        <v>2865</v>
+        <v>2868</v>
       </c>
     </row>
     <row r="1231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1231" t="s">
-        <v>2866</v>
+        <v>2869</v>
       </c>
       <c r="B1231" t="s">
-        <v>2867</v>
+        <v>2870</v>
       </c>
     </row>
     <row r="1232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1232" t="s">
-        <v>2868</v>
+        <v>2874</v>
       </c>
       <c r="B1232" t="s">
-        <v>2869</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="1233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1233" t="s">
-        <v>2870</v>
+        <v>208</v>
       </c>
       <c r="B1233" t="s">
-        <v>2871</v>
+        <v>2872</v>
+      </c>
+      <c r="C1233" t="s">
+        <v>2873</v>
       </c>
     </row>
     <row r="1234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1234" t="s">
-        <v>2875</v>
+        <v>2879</v>
       </c>
       <c r="B1234" t="s">
-        <v>2876</v>
+        <v>2877</v>
+      </c>
+      <c r="C1234" t="s">
+        <v>2878</v>
       </c>
     </row>
     <row r="1235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1235" t="s">
-        <v>208</v>
+        <v>8</v>
       </c>
       <c r="B1235" t="s">
-        <v>2873</v>
-      </c>
-      <c r="C1235" t="s">
-        <v>2874</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="1236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1236" t="s">
-        <v>2880</v>
+        <v>2881</v>
       </c>
       <c r="B1236" t="s">
-        <v>2878</v>
-      </c>
-      <c r="C1236" t="s">
-        <v>2879</v>
+        <v>2882</v>
       </c>
     </row>
     <row r="1237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1237" t="s">
-        <v>8</v>
+        <v>2883</v>
       </c>
       <c r="B1237" t="s">
-        <v>2881</v>
+        <v>2884</v>
+      </c>
+      <c r="C1237" t="s">
+        <v>2885</v>
       </c>
     </row>
     <row r="1238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1238" t="s">
-        <v>2882</v>
+        <v>2886</v>
       </c>
       <c r="B1238" t="s">
-        <v>2883</v>
+        <v>2887</v>
+      </c>
+      <c r="C1238" t="s">
+        <v>2888</v>
       </c>
     </row>
     <row r="1239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1239" t="s">
-        <v>2884</v>
+        <v>2889</v>
       </c>
       <c r="B1239" t="s">
-        <v>2885</v>
-      </c>
-      <c r="C1239" t="s">
-        <v>2886</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="1240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1240" t="s">
-        <v>2887</v>
+        <v>2891</v>
       </c>
       <c r="B1240" t="s">
-        <v>2888</v>
-      </c>
-      <c r="C1240" t="s">
-        <v>2889</v>
+        <v>2892</v>
       </c>
     </row>
     <row r="1241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1241" t="s">
-        <v>2890</v>
+        <v>90</v>
       </c>
       <c r="B1241" t="s">
-        <v>2891</v>
+        <v>2893</v>
       </c>
     </row>
     <row r="1242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1242" t="s">
-        <v>2892</v>
+        <v>2894</v>
       </c>
       <c r="B1242" t="s">
-        <v>2893</v>
+        <v>2895</v>
       </c>
     </row>
     <row r="1243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1243" t="s">
-        <v>90</v>
+        <v>2896</v>
       </c>
       <c r="B1243" t="s">
-        <v>2894</v>
+        <v>2897</v>
       </c>
     </row>
     <row r="1244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1244" t="s">
-        <v>2895</v>
+        <v>2898</v>
       </c>
       <c r="B1244" t="s">
-        <v>2896</v>
+        <v>2899</v>
       </c>
     </row>
     <row r="1245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1245" t="s">
-        <v>2897</v>
+        <v>8</v>
       </c>
       <c r="B1245" t="s">
-        <v>2898</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="1246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1246" t="s">
-        <v>2899</v>
+        <v>2901</v>
       </c>
       <c r="B1246" t="s">
-        <v>2900</v>
+        <v>2902</v>
       </c>
     </row>
     <row r="1247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1247" t="s">
-        <v>8</v>
+        <v>2903</v>
       </c>
       <c r="B1247" t="s">
-        <v>2901</v>
+        <v>2904</v>
       </c>
     </row>
     <row r="1248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1248" t="s">
-        <v>2902</v>
+        <v>2906</v>
       </c>
       <c r="B1248" t="s">
-        <v>2903</v>
+        <v>2907</v>
       </c>
     </row>
     <row r="1249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1249" t="s">
-        <v>2904</v>
+        <v>2909</v>
       </c>
       <c r="B1249" t="s">
         <v>2905</v>
@@ -22398,239 +22398,239 @@
     </row>
     <row r="1250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1250" t="s">
-        <v>2907</v>
+        <v>2910</v>
       </c>
       <c r="B1250" t="s">
         <v>2908</v>
       </c>
     </row>
     <row r="1251" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1251" t="s">
-        <v>2910</v>
-      </c>
       <c r="B1251" t="s">
-        <v>2906</v>
+        <v>2911</v>
       </c>
     </row>
     <row r="1252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1252" t="s">
-        <v>2911</v>
+        <v>2912</v>
       </c>
       <c r="B1252" t="s">
-        <v>2909</v>
+        <v>2913</v>
       </c>
     </row>
     <row r="1253" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1253" t="s">
+        <v>2914</v>
+      </c>
       <c r="B1253" t="s">
-        <v>2912</v>
+        <v>2871</v>
       </c>
     </row>
     <row r="1254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1254" t="s">
-        <v>2913</v>
+        <v>2915</v>
       </c>
       <c r="B1254" t="s">
-        <v>2914</v>
+        <v>2876</v>
       </c>
     </row>
     <row r="1255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1255" t="s">
-        <v>2915</v>
-      </c>
-      <c r="B1255" s="2" t="s">
-        <v>2872</v>
+        <v>2916</v>
+      </c>
+      <c r="B1255" t="s">
+        <v>2917</v>
       </c>
     </row>
     <row r="1256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1256" t="s">
-        <v>2916</v>
-      </c>
-      <c r="B1256" s="2" t="s">
-        <v>2877</v>
+        <v>2918</v>
+      </c>
+      <c r="B1256" t="s">
+        <v>2919</v>
       </c>
     </row>
     <row r="1257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1257" t="s">
-        <v>2917</v>
+        <v>8</v>
       </c>
       <c r="B1257" t="s">
-        <v>2918</v>
+        <v>2920</v>
+      </c>
+      <c r="C1257" t="s">
+        <v>2921</v>
       </c>
     </row>
     <row r="1258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1258" t="s">
-        <v>2919</v>
+        <v>2922</v>
       </c>
       <c r="B1258" t="s">
-        <v>2920</v>
+        <v>2923</v>
+      </c>
+      <c r="C1258" t="s">
+        <v>2924</v>
       </c>
     </row>
     <row r="1259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1259" t="s">
-        <v>8</v>
+        <v>2925</v>
       </c>
       <c r="B1259" t="s">
-        <v>2921</v>
+        <v>2998</v>
       </c>
       <c r="C1259" t="s">
-        <v>2922</v>
+        <v>2999</v>
       </c>
     </row>
     <row r="1260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1260" t="s">
-        <v>2923</v>
+        <v>2926</v>
       </c>
       <c r="B1260" t="s">
-        <v>2924</v>
+        <v>3002</v>
       </c>
       <c r="C1260" t="s">
-        <v>2925</v>
+        <v>3003</v>
       </c>
     </row>
     <row r="1261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1261" t="s">
-        <v>2926</v>
-      </c>
-      <c r="B1261" s="2" t="s">
-        <v>2999</v>
-      </c>
-      <c r="C1261" s="2" t="s">
-        <v>3000</v>
+        <v>2927</v>
+      </c>
+      <c r="B1261" t="s">
+        <v>2928</v>
       </c>
     </row>
     <row r="1262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1262" t="s">
-        <v>2927</v>
-      </c>
-      <c r="B1262" s="2" t="s">
-        <v>3003</v>
-      </c>
-      <c r="C1262" s="2" t="s">
-        <v>3004</v>
+        <v>2929</v>
+      </c>
+      <c r="B1262" t="s">
+        <v>2930</v>
       </c>
     </row>
     <row r="1263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1263" t="s">
-        <v>2928</v>
+        <v>2931</v>
       </c>
       <c r="B1263" t="s">
-        <v>2929</v>
+        <v>2932</v>
       </c>
     </row>
     <row r="1264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1264" t="s">
-        <v>2930</v>
+        <v>2933</v>
       </c>
       <c r="B1264" t="s">
-        <v>2931</v>
+        <v>2934</v>
       </c>
     </row>
     <row r="1265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1265" t="s">
-        <v>2932</v>
+        <v>2935</v>
       </c>
       <c r="B1265" t="s">
-        <v>2933</v>
+        <v>2936</v>
       </c>
     </row>
     <row r="1266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1266" t="s">
-        <v>2934</v>
+        <v>2939</v>
       </c>
       <c r="B1266" t="s">
-        <v>2935</v>
+        <v>2940</v>
       </c>
     </row>
     <row r="1267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1267" t="s">
-        <v>2936</v>
+        <v>2943</v>
       </c>
       <c r="B1267" t="s">
         <v>2937</v>
       </c>
+      <c r="C1267" t="s">
+        <v>2938</v>
+      </c>
     </row>
     <row r="1268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1268" t="s">
-        <v>2940</v>
+        <v>2944</v>
       </c>
       <c r="B1268" t="s">
         <v>2941</v>
       </c>
+      <c r="C1268" t="s">
+        <v>2942</v>
+      </c>
     </row>
     <row r="1269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1269" t="s">
-        <v>2944</v>
+        <v>8</v>
       </c>
       <c r="B1269" t="s">
-        <v>2938</v>
-      </c>
-      <c r="C1269" t="s">
-        <v>2939</v>
+        <v>2945</v>
       </c>
     </row>
     <row r="1270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1270" t="s">
-        <v>2945</v>
+        <v>2946</v>
       </c>
       <c r="B1270" t="s">
-        <v>2942</v>
-      </c>
-      <c r="C1270" t="s">
-        <v>2943</v>
+        <v>2947</v>
       </c>
     </row>
     <row r="1271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1271" t="s">
-        <v>8</v>
+        <v>2948</v>
       </c>
       <c r="B1271" t="s">
-        <v>2946</v>
+        <v>2949</v>
+      </c>
+      <c r="C1271" t="s">
+        <v>2950</v>
       </c>
     </row>
     <row r="1272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1272" t="s">
-        <v>2947</v>
+        <v>2951</v>
       </c>
       <c r="B1272" t="s">
-        <v>2948</v>
+        <v>2952</v>
+      </c>
+      <c r="C1272" t="s">
+        <v>2953</v>
       </c>
     </row>
     <row r="1273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1273" t="s">
-        <v>2949</v>
+        <v>2954</v>
       </c>
       <c r="B1273" t="s">
-        <v>2950</v>
-      </c>
-      <c r="C1273" t="s">
-        <v>2951</v>
+        <v>2955</v>
       </c>
     </row>
     <row r="1274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1274" t="s">
-        <v>2952</v>
+        <v>2956</v>
       </c>
       <c r="B1274" t="s">
-        <v>2953</v>
-      </c>
-      <c r="C1274" t="s">
-        <v>2954</v>
+        <v>2957</v>
       </c>
     </row>
     <row r="1275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1275" t="s">
-        <v>2955</v>
+        <v>8</v>
       </c>
       <c r="B1275" t="s">
-        <v>2956</v>
+        <v>2958</v>
       </c>
     </row>
     <row r="1276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1276" t="s">
-        <v>2957</v>
+        <v>2959</v>
       </c>
       <c r="B1276" t="s">
-        <v>2958</v>
+        <v>2960</v>
       </c>
     </row>
     <row r="1277" spans="1:3" x14ac:dyDescent="0.3">
@@ -22638,1107 +22638,1091 @@
         <v>8</v>
       </c>
       <c r="B1277" t="s">
-        <v>2959</v>
+        <v>2961</v>
       </c>
     </row>
     <row r="1278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1278" t="s">
-        <v>2960</v>
+        <v>2962</v>
       </c>
       <c r="B1278" t="s">
-        <v>2961</v>
+        <v>2963</v>
       </c>
     </row>
     <row r="1279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1279" t="s">
-        <v>8</v>
+        <v>2964</v>
       </c>
       <c r="B1279" t="s">
-        <v>2962</v>
+        <v>2965</v>
       </c>
     </row>
     <row r="1280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1280" t="s">
-        <v>2963</v>
+        <v>2966</v>
       </c>
       <c r="B1280" t="s">
-        <v>2964</v>
+        <v>2967</v>
       </c>
     </row>
     <row r="1281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1281" t="s">
-        <v>2965</v>
+        <v>8</v>
       </c>
       <c r="B1281" t="s">
-        <v>2966</v>
+        <v>2968</v>
       </c>
     </row>
     <row r="1282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1282" t="s">
-        <v>2967</v>
+        <v>2969</v>
       </c>
       <c r="B1282" t="s">
-        <v>2968</v>
+        <v>2970</v>
       </c>
     </row>
     <row r="1283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1283" t="s">
-        <v>8</v>
+        <v>2971</v>
       </c>
       <c r="B1283" t="s">
-        <v>2969</v>
+        <v>2972</v>
       </c>
     </row>
     <row r="1284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1284" t="s">
-        <v>2970</v>
+        <v>2973</v>
       </c>
       <c r="B1284" t="s">
-        <v>2971</v>
+        <v>2974</v>
       </c>
     </row>
     <row r="1285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1285" t="s">
-        <v>2972</v>
+        <v>735</v>
       </c>
       <c r="B1285" t="s">
-        <v>2973</v>
+        <v>2975</v>
+      </c>
+      <c r="C1285" t="s">
+        <v>2976</v>
       </c>
     </row>
     <row r="1286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1286" t="s">
-        <v>2974</v>
+        <v>2977</v>
       </c>
       <c r="B1286" t="s">
-        <v>2975</v>
+        <v>2978</v>
+      </c>
+      <c r="C1286" t="s">
+        <v>2979</v>
       </c>
     </row>
     <row r="1287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1287" t="s">
-        <v>735</v>
+        <v>2980</v>
       </c>
       <c r="B1287" t="s">
-        <v>2976</v>
+        <v>2981</v>
       </c>
       <c r="C1287" t="s">
-        <v>2977</v>
+        <v>2982</v>
       </c>
     </row>
     <row r="1288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1288" t="s">
-        <v>2978</v>
+        <v>2983</v>
       </c>
       <c r="B1288" t="s">
-        <v>2979</v>
+        <v>2984</v>
       </c>
       <c r="C1288" t="s">
-        <v>2980</v>
+        <v>2985</v>
       </c>
     </row>
     <row r="1289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1289" t="s">
-        <v>2981</v>
+        <v>2986</v>
       </c>
       <c r="B1289" t="s">
-        <v>2982</v>
+        <v>2987</v>
       </c>
       <c r="C1289" t="s">
-        <v>2983</v>
+        <v>2988</v>
       </c>
     </row>
     <row r="1290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1290" t="s">
-        <v>2984</v>
+        <v>2989</v>
       </c>
       <c r="B1290" t="s">
-        <v>2985</v>
+        <v>2990</v>
       </c>
       <c r="C1290" t="s">
-        <v>2986</v>
+        <v>2991</v>
       </c>
     </row>
     <row r="1291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1291" t="s">
-        <v>2987</v>
+        <v>75</v>
       </c>
       <c r="B1291" t="s">
-        <v>2988</v>
+        <v>2992</v>
       </c>
       <c r="C1291" t="s">
-        <v>2989</v>
+        <v>2993</v>
       </c>
     </row>
     <row r="1292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1292" t="s">
-        <v>2990</v>
+        <v>2994</v>
       </c>
       <c r="B1292" t="s">
-        <v>2991</v>
+        <v>2995</v>
       </c>
       <c r="C1292" t="s">
-        <v>2992</v>
+        <v>2996</v>
       </c>
     </row>
     <row r="1293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1293" t="s">
-        <v>75</v>
+        <v>8</v>
       </c>
       <c r="B1293" t="s">
-        <v>2993</v>
-      </c>
-      <c r="C1293" t="s">
-        <v>2994</v>
+        <v>2997</v>
       </c>
     </row>
     <row r="1294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1294" t="s">
-        <v>2995</v>
+        <v>3000</v>
       </c>
       <c r="B1294" t="s">
-        <v>2996</v>
-      </c>
-      <c r="C1294" t="s">
-        <v>2997</v>
+        <v>3001</v>
       </c>
     </row>
     <row r="1295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1295" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="B1295" t="s">
-        <v>2998</v>
+        <v>3004</v>
+      </c>
+      <c r="C1295" t="s">
+        <v>3005</v>
       </c>
     </row>
     <row r="1296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1296" t="s">
-        <v>3001</v>
+        <v>3006</v>
       </c>
       <c r="B1296" t="s">
-        <v>3002</v>
+        <v>3007</v>
+      </c>
+      <c r="C1296" t="s">
+        <v>3008</v>
       </c>
     </row>
     <row r="1297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1297" t="s">
-        <v>47</v>
+        <v>3009</v>
       </c>
       <c r="B1297" t="s">
-        <v>3005</v>
+        <v>3010</v>
       </c>
       <c r="C1297" t="s">
-        <v>3006</v>
+        <v>3011</v>
       </c>
     </row>
     <row r="1298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1298" t="s">
-        <v>3007</v>
+        <v>3012</v>
       </c>
       <c r="B1298" t="s">
-        <v>3008</v>
+        <v>3013</v>
       </c>
       <c r="C1298" t="s">
-        <v>3009</v>
+        <v>3014</v>
       </c>
     </row>
     <row r="1299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1299" t="s">
-        <v>3010</v>
+        <v>208</v>
       </c>
       <c r="B1299" t="s">
-        <v>3011</v>
-      </c>
-      <c r="C1299" t="s">
-        <v>3012</v>
+        <v>3015</v>
       </c>
     </row>
     <row r="1300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1300" t="s">
-        <v>3013</v>
+        <v>3016</v>
       </c>
       <c r="B1300" t="s">
-        <v>3014</v>
-      </c>
-      <c r="C1300" t="s">
-        <v>3015</v>
+        <v>3017</v>
       </c>
     </row>
     <row r="1301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1301" t="s">
-        <v>208</v>
+        <v>75</v>
       </c>
       <c r="B1301" t="s">
-        <v>3016</v>
+        <v>3018</v>
+      </c>
+      <c r="C1301" t="s">
+        <v>3019</v>
       </c>
     </row>
     <row r="1302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1302" t="s">
-        <v>3017</v>
+        <v>3023</v>
       </c>
       <c r="B1302" t="s">
-        <v>3018</v>
+        <v>3024</v>
+      </c>
+      <c r="C1302" t="s">
+        <v>3025</v>
       </c>
     </row>
     <row r="1303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1303" t="s">
-        <v>75</v>
+        <v>3029</v>
       </c>
       <c r="B1303" t="s">
-        <v>3019</v>
-      </c>
-      <c r="C1303" t="s">
-        <v>3020</v>
+        <v>3030</v>
       </c>
     </row>
     <row r="1304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1304" t="s">
-        <v>3024</v>
+        <v>3031</v>
       </c>
       <c r="B1304" t="s">
-        <v>3025</v>
-      </c>
-      <c r="C1304" t="s">
-        <v>3026</v>
+        <v>3032</v>
       </c>
     </row>
     <row r="1305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1305" t="s">
-        <v>3030</v>
+        <v>3033</v>
       </c>
       <c r="B1305" t="s">
-        <v>3031</v>
+        <v>3034</v>
       </c>
     </row>
     <row r="1306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1306" t="s">
-        <v>3032</v>
+        <v>3035</v>
       </c>
       <c r="B1306" t="s">
-        <v>3033</v>
+        <v>3036</v>
       </c>
     </row>
     <row r="1307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1307" t="s">
-        <v>3034</v>
+        <v>3037</v>
       </c>
       <c r="B1307" t="s">
-        <v>3035</v>
+        <v>3038</v>
       </c>
     </row>
     <row r="1308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1308" t="s">
-        <v>3036</v>
+        <v>3039</v>
       </c>
       <c r="B1308" t="s">
-        <v>3037</v>
+        <v>3040</v>
       </c>
     </row>
     <row r="1309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1309" t="s">
-        <v>3038</v>
+        <v>3041</v>
       </c>
       <c r="B1309" t="s">
-        <v>3039</v>
+        <v>3042</v>
+      </c>
+      <c r="C1309" t="s">
+        <v>3043</v>
+      </c>
+      <c r="D1309" t="s">
+        <v>3044</v>
       </c>
     </row>
     <row r="1310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1310" t="s">
-        <v>3040</v>
+        <v>3045</v>
       </c>
       <c r="B1310" t="s">
-        <v>3041</v>
+        <v>3046</v>
+      </c>
+      <c r="C1310" t="s">
+        <v>3047</v>
+      </c>
+      <c r="D1310" t="s">
+        <v>3048</v>
       </c>
     </row>
     <row r="1311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1311" t="s">
-        <v>3042</v>
+        <v>3049</v>
       </c>
       <c r="B1311" t="s">
-        <v>3043</v>
+        <v>3020</v>
       </c>
       <c r="C1311" t="s">
-        <v>3044</v>
+        <v>3021</v>
       </c>
       <c r="D1311" t="s">
-        <v>3045</v>
+        <v>3022</v>
       </c>
     </row>
     <row r="1312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1312" t="s">
-        <v>3046</v>
+        <v>3050</v>
       </c>
       <c r="B1312" t="s">
-        <v>3047</v>
+        <v>3026</v>
       </c>
       <c r="C1312" t="s">
-        <v>3048</v>
+        <v>3027</v>
       </c>
       <c r="D1312" t="s">
-        <v>3049</v>
+        <v>3028</v>
       </c>
     </row>
     <row r="1313" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1313" t="s">
-        <v>3050</v>
-      </c>
-      <c r="B1313" t="s">
-        <v>3021</v>
-      </c>
-      <c r="C1313" t="s">
-        <v>3022</v>
-      </c>
-      <c r="D1313" t="s">
-        <v>3023</v>
-      </c>
+      <c r="A1313" s="1" t="s">
+        <v>3051</v>
+      </c>
+      <c r="B1313" s="1"/>
+      <c r="C1313" s="1"/>
+      <c r="D1313" s="1"/>
     </row>
     <row r="1314" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1314" t="s">
-        <v>3051</v>
-      </c>
-      <c r="B1314" t="s">
-        <v>3027</v>
-      </c>
-      <c r="C1314" t="s">
-        <v>3028</v>
-      </c>
-      <c r="D1314" t="s">
-        <v>3029</v>
-      </c>
+      <c r="A1314" s="1" t="s">
+        <v>3052</v>
+      </c>
+      <c r="B1314" s="1"/>
+      <c r="C1314" s="1"/>
+      <c r="D1314" s="1"/>
     </row>
     <row r="1315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1315" s="1" t="s">
-        <v>3052</v>
-      </c>
-      <c r="B1315" s="1"/>
-      <c r="C1315" s="1"/>
-      <c r="D1315" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="B1315" s="1" t="s">
+        <v>3053</v>
+      </c>
+      <c r="C1315" s="1" t="s">
+        <v>3054</v>
+      </c>
+      <c r="D1315" s="1" t="s">
+        <v>3055</v>
+      </c>
     </row>
     <row r="1316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1316" s="1" t="s">
-        <v>3053</v>
-      </c>
-      <c r="B1316" s="1"/>
-      <c r="C1316" s="1"/>
-      <c r="D1316" s="1"/>
+        <v>3052</v>
+      </c>
+      <c r="B1316" s="1" t="s">
+        <v>3056</v>
+      </c>
+      <c r="C1316" s="1" t="s">
+        <v>3057</v>
+      </c>
+      <c r="D1316" s="1" t="s">
+        <v>3058</v>
+      </c>
     </row>
     <row r="1317" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1317" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1317" s="1" t="s">
-        <v>3054</v>
-      </c>
-      <c r="C1317" s="1" t="s">
-        <v>3055</v>
-      </c>
-      <c r="D1317" s="1" t="s">
-        <v>3056</v>
+      <c r="A1317" t="s">
+        <v>3059</v>
+      </c>
+      <c r="B1317" t="s">
+        <v>3060</v>
+      </c>
+      <c r="C1317" t="s">
+        <v>3061</v>
+      </c>
+      <c r="D1317" t="s">
+        <v>3062</v>
       </c>
     </row>
     <row r="1318" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1318" s="1" t="s">
-        <v>3053</v>
-      </c>
-      <c r="B1318" s="1" t="s">
-        <v>3057</v>
-      </c>
-      <c r="C1318" s="1" t="s">
-        <v>3058</v>
-      </c>
-      <c r="D1318" s="1" t="s">
-        <v>3059</v>
+      <c r="A1318" t="s">
+        <v>3063</v>
+      </c>
+      <c r="B1318" t="s">
+        <v>3064</v>
+      </c>
+      <c r="C1318" t="s">
+        <v>3065</v>
+      </c>
+      <c r="D1318" t="s">
+        <v>3066</v>
       </c>
     </row>
     <row r="1319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1319" t="s">
-        <v>3060</v>
+        <v>3067</v>
       </c>
       <c r="B1319" t="s">
-        <v>3061</v>
-      </c>
-      <c r="C1319" t="s">
-        <v>3062</v>
-      </c>
-      <c r="D1319" t="s">
-        <v>3063</v>
+        <v>3068</v>
       </c>
     </row>
     <row r="1320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1320" t="s">
-        <v>3064</v>
+        <v>3069</v>
       </c>
       <c r="B1320" t="s">
-        <v>3065</v>
-      </c>
-      <c r="C1320" t="s">
-        <v>3066</v>
-      </c>
-      <c r="D1320" t="s">
-        <v>3067</v>
+        <v>3070</v>
       </c>
     </row>
     <row r="1321" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1321" t="s">
-        <v>3068</v>
+        <v>735</v>
       </c>
       <c r="B1321" t="s">
-        <v>3069</v>
+        <v>3071</v>
       </c>
     </row>
     <row r="1322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1322" t="s">
-        <v>3070</v>
+        <v>3075</v>
       </c>
       <c r="B1322" t="s">
-        <v>3071</v>
+        <v>3076</v>
       </c>
     </row>
     <row r="1323" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1323" t="s">
-        <v>735</v>
+        <v>3080</v>
       </c>
       <c r="B1323" t="s">
         <v>3072</v>
       </c>
+      <c r="C1323" t="s">
+        <v>3073</v>
+      </c>
+      <c r="D1323" t="s">
+        <v>3074</v>
+      </c>
     </row>
     <row r="1324" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1324" t="s">
-        <v>3076</v>
+        <v>3081</v>
       </c>
       <c r="B1324" t="s">
         <v>3077</v>
       </c>
+      <c r="C1324" t="s">
+        <v>3078</v>
+      </c>
+      <c r="D1324" t="s">
+        <v>3079</v>
+      </c>
     </row>
     <row r="1325" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1325" t="s">
-        <v>3081</v>
+        <v>3082</v>
       </c>
       <c r="B1325" t="s">
-        <v>3073</v>
-      </c>
-      <c r="C1325" t="s">
-        <v>3074</v>
-      </c>
-      <c r="D1325" t="s">
-        <v>3075</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="1326" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1326" t="s">
-        <v>3082</v>
+        <v>3084</v>
       </c>
       <c r="B1326" t="s">
-        <v>3078</v>
-      </c>
-      <c r="C1326" t="s">
-        <v>3079</v>
-      </c>
-      <c r="D1326" t="s">
-        <v>3080</v>
+        <v>3085</v>
       </c>
     </row>
     <row r="1327" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1327" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
       <c r="B1327" t="s">
-        <v>3084</v>
+        <v>3087</v>
+      </c>
+      <c r="C1327" t="s">
+        <v>3088</v>
+      </c>
+      <c r="D1327" t="s">
+        <v>3089</v>
       </c>
     </row>
     <row r="1328" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1328" t="s">
-        <v>3085</v>
+        <v>3090</v>
       </c>
       <c r="B1328" t="s">
-        <v>3086</v>
+        <v>3091</v>
+      </c>
+      <c r="C1328" t="s">
+        <v>3092</v>
+      </c>
+      <c r="D1328" t="s">
+        <v>3091</v>
       </c>
     </row>
     <row r="1329" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1329" t="s">
-        <v>3087</v>
+        <v>3093</v>
       </c>
       <c r="B1329" t="s">
-        <v>3088</v>
-      </c>
-      <c r="C1329" t="s">
-        <v>3089</v>
-      </c>
-      <c r="D1329" t="s">
-        <v>3090</v>
+        <v>3094</v>
       </c>
     </row>
     <row r="1330" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1330" t="s">
-        <v>3091</v>
+        <v>3096</v>
       </c>
       <c r="B1330" t="s">
-        <v>3092</v>
-      </c>
-      <c r="C1330" t="s">
-        <v>3093</v>
-      </c>
-      <c r="D1330" t="s">
-        <v>3092</v>
+        <v>3097</v>
       </c>
     </row>
     <row r="1331" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1331" t="s">
-        <v>3094</v>
+        <v>3099</v>
       </c>
       <c r="B1331" t="s">
-        <v>3095</v>
+        <v>3100</v>
+      </c>
+      <c r="C1331" t="s">
+        <v>3101</v>
+      </c>
+      <c r="D1331" t="s">
+        <v>3102</v>
       </c>
     </row>
     <row r="1332" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1332" t="s">
-        <v>3097</v>
+        <v>3103</v>
       </c>
       <c r="B1332" t="s">
-        <v>3098</v>
+        <v>3104</v>
+      </c>
+      <c r="C1332" t="s">
+        <v>3105</v>
+      </c>
+      <c r="D1332" t="s">
+        <v>3106</v>
       </c>
     </row>
     <row r="1333" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1333" t="s">
-        <v>3100</v>
+        <v>3107</v>
       </c>
       <c r="B1333" t="s">
-        <v>3101</v>
+        <v>3108</v>
       </c>
       <c r="C1333" t="s">
-        <v>3102</v>
-      </c>
-      <c r="D1333" t="s">
-        <v>3103</v>
+        <v>3109</v>
       </c>
     </row>
     <row r="1334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1334" t="s">
-        <v>3104</v>
+        <v>3110</v>
       </c>
       <c r="B1334" t="s">
-        <v>3105</v>
+        <v>3111</v>
       </c>
       <c r="C1334" t="s">
-        <v>3106</v>
-      </c>
-      <c r="D1334" t="s">
-        <v>3107</v>
+        <v>3112</v>
       </c>
     </row>
     <row r="1335" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1335" t="s">
-        <v>3108</v>
+        <v>3113</v>
       </c>
       <c r="B1335" t="s">
-        <v>3109</v>
-      </c>
-      <c r="C1335" t="s">
-        <v>3110</v>
+        <v>3095</v>
       </c>
     </row>
     <row r="1336" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1336" t="s">
-        <v>3111</v>
+        <v>3115</v>
       </c>
       <c r="B1336" t="s">
-        <v>3112</v>
-      </c>
-      <c r="C1336" t="s">
-        <v>3113</v>
+        <v>3098</v>
       </c>
     </row>
     <row r="1337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1337" t="s">
+        <v>3117</v>
+      </c>
+      <c r="B1337" t="s">
         <v>3114</v>
-      </c>
-      <c r="B1337" t="s">
-        <v>3096</v>
       </c>
     </row>
     <row r="1338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1338" t="s">
+        <v>3118</v>
+      </c>
+      <c r="B1338" t="s">
         <v>3116</v>
-      </c>
-      <c r="B1338" t="s">
-        <v>3099</v>
       </c>
     </row>
     <row r="1339" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1339" t="s">
-        <v>3118</v>
+        <v>3119</v>
       </c>
       <c r="B1339" t="s">
-        <v>3115</v>
+        <v>3120</v>
+      </c>
+      <c r="C1339" t="s">
+        <v>3121</v>
       </c>
     </row>
     <row r="1340" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1340" t="s">
-        <v>3119</v>
+        <v>3122</v>
       </c>
       <c r="B1340" t="s">
-        <v>3117</v>
+        <v>3123</v>
+      </c>
+      <c r="C1340" t="s">
+        <v>3124</v>
       </c>
     </row>
     <row r="1341" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1341" t="s">
-        <v>3120</v>
+        <v>3125</v>
       </c>
       <c r="B1341" t="s">
-        <v>3121</v>
-      </c>
-      <c r="C1341" t="s">
-        <v>3122</v>
+        <v>3126</v>
       </c>
     </row>
     <row r="1342" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1342" t="s">
-        <v>3123</v>
+        <v>3127</v>
       </c>
       <c r="B1342" t="s">
-        <v>3124</v>
-      </c>
-      <c r="C1342" t="s">
-        <v>3125</v>
+        <v>3128</v>
       </c>
     </row>
     <row r="1343" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1343" t="s">
-        <v>3126</v>
+        <v>3129</v>
       </c>
       <c r="B1343" t="s">
-        <v>3127</v>
+        <v>3134</v>
       </c>
     </row>
     <row r="1344" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1344" t="s">
-        <v>3128</v>
+        <v>3130</v>
       </c>
       <c r="B1344" t="s">
-        <v>3129</v>
-      </c>
-    </row>
-    <row r="1345" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3138</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1345" t="s">
-        <v>3130</v>
+        <v>3131</v>
       </c>
       <c r="B1345" t="s">
+        <v>3132</v>
+      </c>
+      <c r="C1345" t="s">
+        <v>3133</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1346" t="s">
         <v>3135</v>
       </c>
-    </row>
-    <row r="1346" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1346" t="s">
-        <v>3131</v>
-      </c>
       <c r="B1346" t="s">
+        <v>3136</v>
+      </c>
+      <c r="C1346" t="s">
+        <v>3137</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1347" s="1" t="s">
         <v>3139</v>
       </c>
-    </row>
-    <row r="1347" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1347" t="s">
-        <v>3132</v>
-      </c>
-      <c r="B1347" t="s">
-        <v>3133</v>
-      </c>
-      <c r="C1347" t="s">
-        <v>3134</v>
-      </c>
-    </row>
-    <row r="1348" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1348" t="s">
-        <v>3136</v>
-      </c>
-      <c r="B1348" t="s">
-        <v>3137</v>
-      </c>
-      <c r="C1348" t="s">
-        <v>3138</v>
-      </c>
-    </row>
-    <row r="1349" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1347" s="1"/>
+      <c r="C1347" s="1"/>
+      <c r="D1347" s="1"/>
+    </row>
+    <row r="1348" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1348" s="1" t="s">
+        <v>3140</v>
+      </c>
+      <c r="B1348" s="1"/>
+      <c r="C1348" s="1"/>
+      <c r="D1348" s="1"/>
+    </row>
+    <row r="1349" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1349" s="1" t="s">
-        <v>3140</v>
-      </c>
-      <c r="B1349" s="1"/>
-      <c r="C1349" s="1"/>
-      <c r="D1349" s="1"/>
-    </row>
-    <row r="1350" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3141</v>
+      </c>
+      <c r="B1349" s="1" t="s">
+        <v>3142</v>
+      </c>
+      <c r="C1349" s="1" t="s">
+        <v>3143</v>
+      </c>
+      <c r="D1349" s="1" t="s">
+        <v>3144</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1350" s="1" t="s">
-        <v>3141</v>
-      </c>
-      <c r="B1350" s="1"/>
-      <c r="C1350" s="1"/>
-      <c r="D1350" s="1"/>
-    </row>
-    <row r="1351" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1351" s="1" t="s">
-        <v>3142</v>
-      </c>
-      <c r="B1351" s="1" t="s">
-        <v>3143</v>
-      </c>
-      <c r="C1351" s="1" t="s">
-        <v>3144</v>
-      </c>
-      <c r="D1351" s="1" t="s">
         <v>3145</v>
       </c>
-    </row>
-    <row r="1352" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1352" s="1" t="s">
+      <c r="B1350" s="1" t="s">
         <v>3146</v>
       </c>
-      <c r="B1352" s="1" t="s">
+      <c r="C1350" s="1" t="s">
         <v>3147</v>
       </c>
-      <c r="C1352" s="1" t="s">
+      <c r="D1350" s="1" t="s">
         <v>3148</v>
       </c>
-      <c r="D1352" s="1" t="s">
+    </row>
+    <row r="1351" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1351" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1351" t="s">
         <v>3149</v>
       </c>
-    </row>
-    <row r="1353" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C1351" t="s">
+        <v>3150</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1352" t="s">
+        <v>3151</v>
+      </c>
+      <c r="B1352" t="s">
+        <v>3152</v>
+      </c>
+      <c r="C1352" t="s">
+        <v>3153</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1353" t="s">
-        <v>8</v>
+        <v>3154</v>
       </c>
       <c r="B1353" t="s">
-        <v>3150</v>
-      </c>
-      <c r="C1353" t="s">
-        <v>3151</v>
-      </c>
-    </row>
-    <row r="1354" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3155</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1354" t="s">
-        <v>3152</v>
+        <v>3156</v>
       </c>
       <c r="B1354" t="s">
-        <v>3153</v>
-      </c>
-      <c r="C1354" t="s">
-        <v>3154</v>
-      </c>
-    </row>
-    <row r="1355" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3157</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1355" t="s">
-        <v>3155</v>
+        <v>3158</v>
       </c>
       <c r="B1355" t="s">
-        <v>3156</v>
-      </c>
-    </row>
-    <row r="1356" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3159</v>
+      </c>
+      <c r="C1355" t="s">
+        <v>3160</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1356" t="s">
-        <v>3157</v>
+        <v>3161</v>
       </c>
       <c r="B1356" t="s">
-        <v>3158</v>
-      </c>
-    </row>
-    <row r="1357" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3162</v>
+      </c>
+      <c r="C1356" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1357" t="s">
-        <v>3159</v>
+        <v>3164</v>
       </c>
       <c r="B1357" t="s">
-        <v>3160</v>
+        <v>3165</v>
       </c>
       <c r="C1357" t="s">
-        <v>3161</v>
-      </c>
-    </row>
-    <row r="1358" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3166</v>
+      </c>
+      <c r="D1357" t="s">
+        <v>3167</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1358" t="s">
-        <v>3162</v>
+        <v>3168</v>
       </c>
       <c r="B1358" t="s">
-        <v>3163</v>
+        <v>3169</v>
       </c>
       <c r="C1358" t="s">
-        <v>3164</v>
-      </c>
-    </row>
-    <row r="1359" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3170</v>
+      </c>
+      <c r="D1358" t="s">
+        <v>3171</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1359" t="s">
-        <v>3165</v>
+        <v>3172</v>
       </c>
       <c r="B1359" t="s">
-        <v>3166</v>
+        <v>3173</v>
       </c>
       <c r="C1359" t="s">
-        <v>3167</v>
+        <v>3174</v>
       </c>
       <c r="D1359" t="s">
-        <v>3168</v>
-      </c>
-    </row>
-    <row r="1360" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3175</v>
+      </c>
+      <c r="E1359" t="s">
+        <v>3176</v>
+      </c>
+      <c r="F1359" t="s">
+        <v>3177</v>
+      </c>
+      <c r="G1359" t="s">
+        <v>3178</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1360" t="s">
-        <v>3169</v>
+        <v>3179</v>
       </c>
       <c r="B1360" t="s">
-        <v>3170</v>
+        <v>3180</v>
       </c>
       <c r="C1360" t="s">
-        <v>3171</v>
+        <v>3181</v>
       </c>
       <c r="D1360" t="s">
-        <v>3172</v>
-      </c>
-    </row>
-    <row r="1361" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3182</v>
+      </c>
+      <c r="E1360" t="s">
+        <v>3180</v>
+      </c>
+      <c r="F1360" t="s">
+        <v>3183</v>
+      </c>
+      <c r="G1360" t="s">
+        <v>3184</v>
+      </c>
+    </row>
+    <row r="1361" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1361" t="s">
-        <v>3173</v>
+        <v>3185</v>
       </c>
       <c r="B1361" t="s">
-        <v>3174</v>
+        <v>3186</v>
       </c>
       <c r="C1361" t="s">
-        <v>3175</v>
+        <v>3187</v>
       </c>
       <c r="D1361" t="s">
-        <v>3176</v>
+        <v>3188</v>
       </c>
       <c r="E1361" t="s">
-        <v>3177</v>
-      </c>
-      <c r="F1361" t="s">
-        <v>3178</v>
-      </c>
-      <c r="G1361" t="s">
-        <v>3179</v>
-      </c>
-    </row>
-    <row r="1362" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3189</v>
+      </c>
+    </row>
+    <row r="1362" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1362" t="s">
-        <v>3180</v>
+        <v>3190</v>
       </c>
       <c r="B1362" t="s">
-        <v>3181</v>
+        <v>3191</v>
       </c>
       <c r="C1362" t="s">
-        <v>3182</v>
+        <v>3192</v>
       </c>
       <c r="D1362" t="s">
-        <v>3183</v>
+        <v>3193</v>
       </c>
       <c r="E1362" t="s">
-        <v>3181</v>
-      </c>
-      <c r="F1362" t="s">
-        <v>3184</v>
-      </c>
-      <c r="G1362" t="s">
-        <v>3185</v>
-      </c>
-    </row>
-    <row r="1363" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3194</v>
+      </c>
+    </row>
+    <row r="1363" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1363" t="s">
-        <v>3186</v>
+        <v>3195</v>
       </c>
       <c r="B1363" t="s">
-        <v>3187</v>
-      </c>
-      <c r="C1363" t="s">
-        <v>3188</v>
-      </c>
-      <c r="D1363" t="s">
-        <v>3189</v>
-      </c>
-      <c r="E1363" t="s">
-        <v>3190</v>
-      </c>
-    </row>
-    <row r="1364" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3196</v>
+      </c>
+    </row>
+    <row r="1364" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1364" t="s">
-        <v>3191</v>
+        <v>3197</v>
       </c>
       <c r="B1364" t="s">
-        <v>3192</v>
-      </c>
-      <c r="C1364" t="s">
-        <v>3193</v>
-      </c>
-      <c r="D1364" t="s">
-        <v>3194</v>
-      </c>
-      <c r="E1364" t="s">
-        <v>3195</v>
-      </c>
-    </row>
-    <row r="1365" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3198</v>
+      </c>
+    </row>
+    <row r="1365" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1365" t="s">
-        <v>3196</v>
+        <v>3199</v>
       </c>
       <c r="B1365" t="s">
-        <v>3197</v>
-      </c>
-    </row>
-    <row r="1366" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3200</v>
+      </c>
+      <c r="C1365" t="s">
+        <v>3201</v>
+      </c>
+      <c r="D1365" t="s">
+        <v>3202</v>
+      </c>
+      <c r="E1365" t="s">
+        <v>3203</v>
+      </c>
+    </row>
+    <row r="1366" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1366" t="s">
-        <v>3198</v>
+        <v>3204</v>
       </c>
       <c r="B1366" t="s">
-        <v>3199</v>
-      </c>
-    </row>
-    <row r="1367" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3205</v>
+      </c>
+      <c r="C1366" t="s">
+        <v>3206</v>
+      </c>
+      <c r="D1366" t="s">
+        <v>3207</v>
+      </c>
+      <c r="E1366" t="s">
+        <v>3208</v>
+      </c>
+    </row>
+    <row r="1367" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1367" t="s">
-        <v>3200</v>
+        <v>3209</v>
       </c>
       <c r="B1367" t="s">
-        <v>3201</v>
-      </c>
-      <c r="C1367" t="s">
-        <v>3202</v>
-      </c>
-      <c r="D1367" t="s">
-        <v>3203</v>
-      </c>
-      <c r="E1367" t="s">
-        <v>3204</v>
-      </c>
-    </row>
-    <row r="1368" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3210</v>
+      </c>
+    </row>
+    <row r="1368" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1368" t="s">
-        <v>3205</v>
+        <v>3211</v>
       </c>
       <c r="B1368" t="s">
-        <v>3206</v>
-      </c>
-      <c r="C1368" t="s">
-        <v>3207</v>
-      </c>
-      <c r="D1368" t="s">
-        <v>3208</v>
-      </c>
-      <c r="E1368" t="s">
-        <v>3209</v>
-      </c>
-    </row>
-    <row r="1369" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3212</v>
+      </c>
+    </row>
+    <row r="1369" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1369" t="s">
-        <v>3210</v>
+        <v>3213</v>
       </c>
       <c r="B1369" t="s">
-        <v>3211</v>
-      </c>
-    </row>
-    <row r="1370" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3214</v>
+      </c>
+    </row>
+    <row r="1370" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1370" t="s">
-        <v>3212</v>
+        <v>3217</v>
       </c>
       <c r="B1370" t="s">
-        <v>3213</v>
-      </c>
-    </row>
-    <row r="1371" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3218</v>
+      </c>
+    </row>
+    <row r="1371" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1371" t="s">
-        <v>3214</v>
+        <v>3221</v>
       </c>
       <c r="B1371" t="s">
         <v>3215</v>
       </c>
-    </row>
-    <row r="1372" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C1371" t="s">
+        <v>3216</v>
+      </c>
+    </row>
+    <row r="1372" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1372" t="s">
-        <v>3218</v>
+        <v>3222</v>
       </c>
       <c r="B1372" t="s">
         <v>3219</v>
       </c>
-    </row>
-    <row r="1373" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C1372" t="s">
+        <v>3220</v>
+      </c>
+    </row>
+    <row r="1373" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1373" t="s">
-        <v>3222</v>
+        <v>3223</v>
       </c>
       <c r="B1373" t="s">
-        <v>3216</v>
+        <v>3224</v>
       </c>
       <c r="C1373" t="s">
-        <v>3217</v>
-      </c>
-    </row>
-    <row r="1374" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3225</v>
+      </c>
+    </row>
+    <row r="1374" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1374" t="s">
-        <v>3223</v>
+        <v>3226</v>
       </c>
       <c r="B1374" t="s">
-        <v>3220</v>
+        <v>3227</v>
       </c>
       <c r="C1374" t="s">
-        <v>3221</v>
-      </c>
-    </row>
-    <row r="1375" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3228</v>
+      </c>
+    </row>
+    <row r="1375" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1375" t="s">
-        <v>3224</v>
+        <v>3229</v>
       </c>
       <c r="B1375" t="s">
-        <v>3225</v>
+        <v>3230</v>
       </c>
       <c r="C1375" t="s">
-        <v>3226</v>
-      </c>
-    </row>
-    <row r="1376" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3231</v>
+      </c>
+      <c r="D1375" t="s">
+        <v>3232</v>
+      </c>
+    </row>
+    <row r="1376" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1376" t="s">
-        <v>3227</v>
+        <v>3235</v>
       </c>
       <c r="B1376" t="s">
-        <v>3228</v>
+        <v>3236</v>
       </c>
       <c r="C1376" t="s">
-        <v>3229</v>
-      </c>
-    </row>
-    <row r="1377" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3237</v>
+      </c>
+      <c r="D1376" t="s">
+        <v>3238</v>
+      </c>
+    </row>
+    <row r="1377" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1377" t="s">
-        <v>3230</v>
+        <v>3241</v>
       </c>
       <c r="B1377" t="s">
-        <v>3231</v>
+        <v>3233</v>
       </c>
       <c r="C1377" t="s">
-        <v>3232</v>
-      </c>
-      <c r="D1377" t="s">
-        <v>3233</v>
-      </c>
-    </row>
-    <row r="1378" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3234</v>
+      </c>
+    </row>
+    <row r="1378" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1378" t="s">
-        <v>3236</v>
+        <v>3242</v>
       </c>
       <c r="B1378" t="s">
-        <v>3237</v>
+        <v>3239</v>
       </c>
       <c r="C1378" t="s">
-        <v>3238</v>
-      </c>
-      <c r="D1378" t="s">
-        <v>3239</v>
-      </c>
-    </row>
-    <row r="1379" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1379" t="s">
-        <v>3242</v>
-      </c>
-      <c r="B1379" t="s">
-        <v>3234</v>
-      </c>
-      <c r="C1379" t="s">
-        <v>3235</v>
-      </c>
-    </row>
-    <row r="1380" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1380" t="s">
-        <v>3243</v>
-      </c>
-      <c r="B1380" t="s">
         <v>3240</v>
-      </c>
-      <c r="C1380" t="s">
-        <v>3241</v>
       </c>
     </row>
   </sheetData>

--- a/template.xlsx
+++ b/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Desktop\code\PDF_host_Website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2849311F-F412-48D3-A4C3-F6067A0F0067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A612030-8FD4-4E3F-B07E-3031755010DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7752" yWindow="696" windowWidth="13032" windowHeight="10032" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DavidSheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3525" uniqueCount="3253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3525" uniqueCount="3254">
   <si>
     <t>C-VI096</t>
   </si>
@@ -9779,16 +9779,25 @@
   </si>
   <si>
     <t>T-CI169</t>
+  </si>
+  <si>
+    <t>2722</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -10127,8 +10136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P1378"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A73" sqref="A73"/>
+    <sheetView tabSelected="1" topLeftCell="A367" workbookViewId="0">
+      <selection activeCell="C383" sqref="C383"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13710,7 +13719,7 @@
         <v>849</v>
       </c>
       <c r="C379" t="s">
-        <v>592</v>
+        <v>3253</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.3">
@@ -23476,6 +23485,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/template.xlsx
+++ b/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Desktop\code\PDF_host_Website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A612030-8FD4-4E3F-B07E-3031755010DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0826E66-4301-49CC-B984-849DBDCECC05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7752" yWindow="696" windowWidth="13032" windowHeight="10032" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DavidSheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3525" uniqueCount="3254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3524" uniqueCount="3254">
   <si>
     <t>C-VI096</t>
   </si>
@@ -10136,8 +10136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P1378"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A367" workbookViewId="0">
-      <selection activeCell="C383" sqref="C383"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19313,8 +19313,8 @@
       <c r="A967" t="s">
         <v>2190</v>
       </c>
-      <c r="B967" t="s">
-        <v>2191</v>
+      <c r="B967">
+        <v>2785</v>
       </c>
     </row>
     <row r="968" spans="1:3" x14ac:dyDescent="0.3">
